--- a/test/output/data_schema_properties_2016.xlsx
+++ b/test/output/data_schema_properties_2016.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="118">
   <si>
     <t>column</t>
   </si>
@@ -47,55 +47,55 @@
     <t>numeric</t>
   </si>
   <si>
-    <t>[11576840, 14178655, 13095053, 17261726, 14690683]</t>
+    <t>[14629840, 12521812, 10760672, 76914970, 11709999]</t>
   </si>
   <si>
     <t>airconditioningtypeid</t>
   </si>
   <si>
-    <t>[1.0, 1.0, 13.0, 1.0, 1.0]</t>
+    <t>[1.0, 1.0, 1.0, 1.0, 1.0]</t>
   </si>
   <si>
     <t>architecturalstyletypeid</t>
   </si>
   <si>
-    <t>[7.0, 7.0, 7.0, 7.0, 8.0]</t>
+    <t>[7.0, 7.0, 7.0, 7.0, 7.0]</t>
   </si>
   <si>
     <t>basementsqft</t>
   </si>
   <si>
-    <t>[805.0, 375.0, 1309.0, 485.0, 24.0]</t>
+    <t>[406.0, 645.0, 64.0, 600.0, 2029.0]</t>
   </si>
   <si>
     <t>bathroomcnt</t>
   </si>
   <si>
-    <t>[2.0, 3.5, 1.5, 2.0, 2.0]</t>
+    <t>[2.0, 1.5, 2.0, 2.0, 2.0]</t>
   </si>
   <si>
     <t>bedroomcnt</t>
   </si>
   <si>
-    <t>[4.0, 2.0, 3.0, 1.0, 3.0]</t>
+    <t>[4.0, 3.0, 2.0, 3.0, 3.0]</t>
   </si>
   <si>
     <t>buildingclasstypeid</t>
   </si>
   <si>
-    <t>[4.0, 4.0, 4.0, 4.0, 4.0]</t>
+    <t>[4.0, 4.0, 3.0, 4.0, 3.0]</t>
   </si>
   <si>
     <t>buildingqualitytypeid</t>
   </si>
   <si>
-    <t>[7.0, 7.0, 4.0, 7.0, 7.0]</t>
+    <t>[7.0, 7.0, 4.0, 4.0, 4.0]</t>
   </si>
   <si>
     <t>calculatedbathnbr</t>
   </si>
   <si>
-    <t>[5.0, 1.0, 2.0, 2.0, 4.0]</t>
+    <t>[3.0, 2.0, 3.0, 1.0, 1.5]</t>
   </si>
   <si>
     <t>decktypeid</t>
@@ -107,49 +107,49 @@
     <t>finishedfloor1squarefeet</t>
   </si>
   <si>
-    <t>[1052.0, 1151.0, 938.0, 1362.0, 574.0]</t>
+    <t>[1474.0, 1375.0, 1096.0, 707.0, 1450.0]</t>
   </si>
   <si>
     <t>calculatedfinishedsquarefeet</t>
   </si>
   <si>
-    <t>[1230.0, 1428.0, 1122.0, 2049.0, 2351.0]</t>
+    <t>[738.0, 819.0, 700.0, 1156.0, 1708.0]</t>
   </si>
   <si>
     <t>finishedsquarefeet12</t>
   </si>
   <si>
-    <t>[2012.0, 2490.0, 1158.0, 1088.0, 2511.0]</t>
+    <t>[1447.0, 1026.0, 1072.0, 1800.0, 1082.0]</t>
   </si>
   <si>
     <t>finishedsquarefeet13</t>
   </si>
   <si>
-    <t>[660.0, 1488.0, 1344.0, 1440.0, 880.0]</t>
+    <t>[1392.0, 1440.0, 1248.0, 1296.0, 1440.0]</t>
   </si>
   <si>
     <t>finishedsquarefeet15</t>
   </si>
   <si>
-    <t>[3693.0, 1980.0, 2378.0, 5526.0, 1731.0]</t>
+    <t>[2208.0, 3264.0, 938.0, 2122.0, 1564.0]</t>
   </si>
   <si>
     <t>finishedsquarefeet50</t>
   </si>
   <si>
-    <t>[1002.0, 1051.0, 1200.0, 1454.0, 1491.0]</t>
+    <t>[1040.0, 1070.0, 1453.0, 1756.0, 1473.0]</t>
   </si>
   <si>
     <t>finishedsquarefeet6</t>
   </si>
   <si>
-    <t>[2316.0, 2625.0, 816.0, 1980.0, 4042.0]</t>
+    <t>[1870.0, 1714.0, 3960.0, 2732.0, 5057.0]</t>
   </si>
   <si>
     <t>fips</t>
   </si>
   <si>
-    <t>[6037.0, 6059.0, 6037.0, 6111.0, 6037.0]</t>
+    <t>[6037.0, 6037.0, 6037.0, 6037.0, 6037.0]</t>
   </si>
   <si>
     <t>fireplacecnt</t>
@@ -161,19 +161,19 @@
     <t>fullbathcnt</t>
   </si>
   <si>
-    <t>[2.0, 2.0, 3.0, 1.0, 6.0]</t>
+    <t>[1.0, 2.0, 1.0, 2.0, 2.0]</t>
   </si>
   <si>
     <t>garagecarcnt</t>
   </si>
   <si>
-    <t>[2.0, 2.0, 2.0, 2.0, 2.0]</t>
+    <t>[2.0, 2.0, 0.0, 2.0, 2.0]</t>
   </si>
   <si>
     <t>garagetotalsqft</t>
   </si>
   <si>
-    <t>[500.0, 439.0, 0.0, 517.0, 792.0]</t>
+    <t>[504.0, 666.0, 410.0, 819.0, 484.0]</t>
   </si>
   <si>
     <t>hashottuborspa</t>
@@ -188,34 +188,34 @@
     <t>heatingorsystemtypeid</t>
   </si>
   <si>
+    <t>[2.0, 2.0, 7.0, 7.0, 7.0]</t>
+  </si>
+  <si>
     <t>latitude</t>
   </si>
   <si>
-    <t>[33857325.0, 33662395.0, 33622495.0, 33679200.0, 34044547.0]</t>
+    <t>[34270910.0, 33776477.0, 34089600.0, 34245033.0, 33609900.0]</t>
   </si>
   <si>
     <t>longitude</t>
   </si>
   <si>
-    <t>[-117872270.0, -118302033.0, -117610894.0, -117856419.0, -117779089.0]</t>
+    <t>[-118405261.0, -117906703.0, -118482440.0, -118242687.0, -118259205.0]</t>
   </si>
   <si>
     <t>lotsizesquarefeet</t>
   </si>
   <si>
-    <t>[108116.0, 34768.0, 7115.0, 5400.0, 6954.0]</t>
+    <t>[18681.0, 23822.0, 7501.0, 3840.0, 5163.0]</t>
   </si>
   <si>
     <t>poolcnt</t>
   </si>
   <si>
-    <t>[1.0, 1.0, 1.0, 1.0, 1.0]</t>
-  </si>
-  <si>
     <t>poolsizesum</t>
   </si>
   <si>
-    <t>[480.0, 450.0, 476.0, 1368.0, 512.0]</t>
+    <t>[450.0, 651.0, 358.0, 473.0, 50.0]</t>
   </si>
   <si>
     <t>pooltypeid10</t>
@@ -230,70 +230,67 @@
     <t>propertycountylandusecode</t>
   </si>
   <si>
-    <t>['0100', '010C', '0100', '0101', '070P']</t>
+    <t>['0100', '0100', '0100', '122', '0100']</t>
   </si>
   <si>
     <t>propertylandusetypeid</t>
   </si>
   <si>
-    <t>[261.0, 261.0, 267.0, 261.0, 266.0]</t>
+    <t>[261.0, 261.0, 261.0, 261.0, 261.0]</t>
   </si>
   <si>
     <t>propertyzoningdesc</t>
   </si>
   <si>
-    <t>['LAR1', 'LARD3', 'LAR2', 'PSR4', 'PSR6']</t>
+    <t>['LAR1', 'LCC2*', 'MNRS', 'LAR1', 'LCR320U*']</t>
   </si>
   <si>
     <t>rawcensustractandblock</t>
   </si>
   <si>
-    <t>[61110077.001059994, 60371255.011007994, 60377013.043012999, 60376506.032005005, 60376703.283024997]</t>
+    <t>[60379005.013011001, 60590525.203004003, 60371973.002001002, 60374060.001000002, 60590879.022007994]</t>
   </si>
   <si>
     <t>regionidcity</t>
   </si>
   <si>
-    <t>[14634.0, 27110.0, 50677.0, 32380.0, 52650.0]</t>
+    <t>[42150.0, 53636.0, 5534.0, 12447.0, 26531.0]</t>
   </si>
   <si>
     <t>regionidcounty</t>
   </si>
   <si>
-    <t>[3101.0, 1286.0, 2061.0, 1286.0, 3101.0]</t>
+    <t>[3101.0, 2061.0, 1286.0, 3101.0, 3101.0]</t>
   </si>
   <si>
     <t>regionidneighborhood</t>
   </si>
   <si>
-    <t>[6952.0, 275078.0, 268392.0, 118208.0, 21056.0]</t>
+    <t>[416965.0, 275078.0, 416303.0, 48570.0, 41131.0]</t>
   </si>
   <si>
     <t>regionidzip</t>
   </si>
   <si>
-    <t>[97089.0, 96369.0, 96373.0, 96954.0, 96465.0]</t>
+    <t>[97329.0, 96990.0, 96229.0, 96962.0, 96485.0]</t>
   </si>
   <si>
     <t>roomcnt</t>
   </si>
   <si>
-    <t>[0.0, 0.0, 0.0, 0.0, 8.0]</t>
+    <t>[0.0, 0.0, 6.0, 8.0, 0.0]</t>
   </si>
   <si>
     <t>storytypeid</t>
   </si>
   <si>
-    <t>[7.0, 7.0, 7.0, 7.0, 7.0]</t>
-  </si>
-  <si>
     <t>threequarterbathnbr</t>
   </si>
   <si>
     <t>typeconstructiontypeid</t>
   </si>
   <si>
-    <t>[6.0, 6.0, 6.0, 6.0, 6.0]</t>
+    <t>[6.0, 6.0, 6.0, 6.0, 4.0]</t>
   </si>
   <si>
     <t>unitcnt</t>
@@ -302,25 +299,25 @@
     <t>yardbuildingsqft17</t>
   </si>
   <si>
-    <t>[396.0, 384.0, 458.0, 200.0, 225.0]</t>
+    <t>[400.0, 450.0, 340.0, 304.0, 176.0]</t>
   </si>
   <si>
     <t>yardbuildingsqft26</t>
   </si>
   <si>
-    <t>[68.0, 108.0, 48.0, 390.0, 386.0]</t>
+    <t>[113.0, 224.0, 90.0, 100.0, 100.0]</t>
   </si>
   <si>
     <t>yearbuilt</t>
   </si>
   <si>
-    <t>[1944.0, 1965.0, 1973.0, 1994.0, 1937.0]</t>
+    <t>[1982.0, 1988.0, 1923.0, 1968.0, 1995.0]</t>
   </si>
   <si>
     <t>numberofstories</t>
   </si>
   <si>
-    <t>[1.0, 2.0, 1.0, 1.0, 2.0]</t>
+    <t>[1.0, 1.0, 1.0, 2.0, 1.0]</t>
   </si>
   <si>
     <t>fireplaceflag</t>
@@ -329,13 +326,13 @@
     <t>structuretaxvaluedollarcnt</t>
   </si>
   <si>
-    <t>[132280.0, 137684.0, 204778.0, 93226.0, 260709.0]</t>
+    <t>[94798.0, 416867.0, 140370.0, 89528.0, 177213.0]</t>
   </si>
   <si>
     <t>taxvaluedollarcnt</t>
   </si>
   <si>
-    <t>[208693.0, 319648.0, 261274.0, 166000.0, 332996.0]</t>
+    <t>[445569.0, 532345.0, 235586.0, 374718.0, 553576.0]</t>
   </si>
   <si>
     <t>assessmentyear</t>
@@ -347,13 +344,13 @@
     <t>landtaxvaluedollarcnt</t>
   </si>
   <si>
-    <t>[453891.0, 328000.0, 158465.0, 37427.0, 408222.0]</t>
+    <t>[15072.0, 145067.0, 85800.0, 110466.0, 46603.0]</t>
   </si>
   <si>
     <t>taxamount</t>
   </si>
   <si>
-    <t>[4611.4200000000001, 2305.0999999999999, 3698.7399999999998, 1167.99, 3030.1199999999999]</t>
+    <t>[3488.4200000000001, 4043.1399999999999, 2342.8200000000002, 1618.1099999999999, 1497.3199999999999]</t>
   </si>
   <si>
     <t>taxdelinquencyflag</t>
@@ -365,13 +362,13 @@
     <t>taxdelinquencyyear</t>
   </si>
   <si>
-    <t>[15.0, 15.0, 14.0, 15.0, 13.0]</t>
+    <t>[10.0, 15.0, 13.0, 13.0, 15.0]</t>
   </si>
   <si>
     <t>censustractandblock</t>
   </si>
   <si>
-    <t>[60371193411003.0, 60371398021022.0, 60590881072002.0, 60376510012001.0, 60375418021007.0]</t>
+    <t>[60375014003004.0, 60374033163003.0, 60374027031003.0, 60374086302010.0, 60371371031000.0]</t>
   </si>
 </sst>
 </file>
@@ -781,13 +778,13 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" width="42"/>
-    <col customWidth="1" max="2" min="2" width="10.5"/>
+    <col customWidth="1" max="2" min="2" width="30"/>
     <col customWidth="1" max="3" min="3" width="100"/>
-    <col customWidth="1" max="4" min="4" width="21"/>
-    <col customWidth="1" max="5" min="5" width="18"/>
-    <col customWidth="1" max="6" min="6" width="24"/>
-    <col customWidth="1" max="7" min="7" width="25.5"/>
-    <col customWidth="1" max="8" min="8" width="25.5"/>
+    <col customWidth="1" max="4" min="4" width="30"/>
+    <col customWidth="1" max="5" min="5" width="30"/>
+    <col customWidth="1" max="6" min="6" width="30"/>
+    <col customWidth="1" max="7" min="7" width="30"/>
+    <col customWidth="1" max="8" min="8" width="30"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="20" r="0" spans="1:8"/>
@@ -1423,7 +1420,7 @@
         <v>9</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D25" s="4" t="n">
         <v>14</v>
@@ -1443,13 +1440,13 @@
     </row>
     <row customHeight="1" ht="20" r="26" spans="1:8">
       <c r="A26" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D26" s="4" t="n">
         <v>852325</v>
@@ -1469,13 +1466,13 @@
     </row>
     <row customHeight="1" ht="20" r="27" spans="1:8">
       <c r="A27" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D27" s="4" t="n">
         <v>1042550</v>
@@ -1495,13 +1492,13 @@
     </row>
     <row customHeight="1" ht="20" r="28" spans="1:8">
       <c r="A28" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D28" s="4" t="n">
         <v>69953</v>
@@ -1521,13 +1518,13 @@
     </row>
     <row customHeight="1" ht="20" r="29" spans="1:8">
       <c r="A29" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D29" s="4" t="n">
         <v>1</v>
@@ -1579,7 +1576,7 @@
         <v>9</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D31" s="4" t="n">
         <v>1</v>
@@ -1605,7 +1602,7 @@
         <v>9</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D32" s="4" t="n">
         <v>1</v>
@@ -1631,7 +1628,7 @@
         <v>9</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D33" s="4" t="n">
         <v>1</v>
@@ -1891,7 +1888,7 @@
         <v>9</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="D43" s="4" t="n">
         <v>1</v>
@@ -1911,13 +1908,13 @@
     </row>
     <row customHeight="1" ht="20" r="44" spans="1:8">
       <c r="A44" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D44" s="4" t="n">
         <v>7</v>
@@ -1937,13 +1934,13 @@
     </row>
     <row customHeight="1" ht="20" r="45" spans="1:8">
       <c r="A45" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="D45" s="4" t="n">
         <v>5</v>
@@ -1963,13 +1960,13 @@
     </row>
     <row customHeight="1" ht="20" r="46" spans="1:8">
       <c r="A46" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D46" s="4" t="n">
         <v>146</v>
@@ -1989,13 +1986,13 @@
     </row>
     <row customHeight="1" ht="20" r="47" spans="1:8">
       <c r="A47" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="D47" s="4" t="n">
         <v>1636</v>
@@ -2015,13 +2012,13 @@
     </row>
     <row customHeight="1" ht="20" r="48" spans="1:8">
       <c r="A48" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="D48" s="4" t="n">
         <v>594</v>
@@ -2041,13 +2038,13 @@
     </row>
     <row customHeight="1" ht="20" r="49" spans="1:8">
       <c r="A49" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="D49" s="4" t="n">
         <v>168</v>
@@ -2067,13 +2064,13 @@
     </row>
     <row customHeight="1" ht="20" r="50" spans="1:8">
       <c r="A50" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="D50" s="4" t="n">
         <v>12</v>
@@ -2093,7 +2090,7 @@
     </row>
     <row customHeight="1" ht="20" r="51" spans="1:8">
       <c r="A51" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>54</v>
@@ -2119,13 +2116,13 @@
     </row>
     <row customHeight="1" ht="20" r="52" spans="1:8">
       <c r="A52" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="D52" s="4" t="n">
         <v>426150</v>
@@ -2145,13 +2142,13 @@
     </row>
     <row customHeight="1" ht="20" r="53" spans="1:8">
       <c r="A53" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="D53" s="4" t="n">
         <v>638920</v>
@@ -2171,13 +2168,13 @@
     </row>
     <row customHeight="1" ht="20" r="54" spans="1:8">
       <c r="A54" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="D54" s="4" t="n">
         <v>14</v>
@@ -2197,13 +2194,13 @@
     </row>
     <row customHeight="1" ht="20" r="55" spans="1:8">
       <c r="A55" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="D55" s="4" t="n">
         <v>531408</v>
@@ -2223,13 +2220,13 @@
     </row>
     <row customHeight="1" ht="20" r="56" spans="1:8">
       <c r="A56" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="D56" s="4" t="n">
         <v>1045757</v>
@@ -2249,13 +2246,13 @@
     </row>
     <row customHeight="1" ht="20" r="57" spans="1:8">
       <c r="A57" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D57" s="4" t="n">
         <v>1</v>
@@ -2275,13 +2272,13 @@
     </row>
     <row customHeight="1" ht="20" r="58" spans="1:8">
       <c r="A58" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="D58" s="4" t="n">
         <v>32</v>
@@ -2301,13 +2298,13 @@
     </row>
     <row customHeight="1" ht="20" r="59" spans="1:8">
       <c r="A59" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="D59" s="4" t="n">
         <v>96771</v>
@@ -2343,7 +2340,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="B2:B59" type="list">
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="B2 B3 B4 B5 B6 B7 B8 B9 B10 B11 B12 B13 B14 B15 B16 B17 B18 B19 B20 B21 B22 B23 B24 B25 B26 B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B49 B50 B51 B52 B53 B54 B55 B56 B57 B58 B59" type="list">
       <formula1>"key,numeric,str,date"</formula1>
     </dataValidation>
   </dataValidations>

--- a/test/output/data_schema_properties_2016.xlsx
+++ b/test/output/data_schema_properties_2016.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="120">
   <si>
     <t>column</t>
   </si>
@@ -47,7 +47,7 @@
     <t>numeric</t>
   </si>
   <si>
-    <t>[14629840, 12521812, 10760672, 76914970, 11709999]</t>
+    <t>[11475661, 12226447, 14693504, 14389686, 11431625]</t>
   </si>
   <si>
     <t>airconditioningtypeid</t>
@@ -59,265 +59,271 @@
     <t>architecturalstyletypeid</t>
   </si>
   <si>
+    <t>[7.0, 7.0, 7.0, 7.0, 8.0]</t>
+  </si>
+  <si>
+    <t>basementsqft</t>
+  </si>
+  <si>
+    <t>[308.0, 651.0, 220.0, 1179.0, 228.0]</t>
+  </si>
+  <si>
+    <t>bathroomcnt</t>
+  </si>
+  <si>
+    <t>[1.0, 1.0, 3.0, 2.5, 2.0]</t>
+  </si>
+  <si>
+    <t>bedroomcnt</t>
+  </si>
+  <si>
+    <t>[4.0, 2.0, 4.0, 4.0, 4.0]</t>
+  </si>
+  <si>
+    <t>buildingclasstypeid</t>
+  </si>
+  <si>
+    <t>[3.0, 4.0, 4.0, 4.0, 4.0]</t>
+  </si>
+  <si>
+    <t>buildingqualitytypeid</t>
+  </si>
+  <si>
+    <t>[4.0, 7.0, 7.0, 4.0, 7.0]</t>
+  </si>
+  <si>
+    <t>calculatedbathnbr</t>
+  </si>
+  <si>
+    <t>[3.0, 3.0, 1.0, 2.0, 2.0]</t>
+  </si>
+  <si>
+    <t>decktypeid</t>
+  </si>
+  <si>
+    <t>[66.0, 66.0, 66.0, 66.0, 66.0]</t>
+  </si>
+  <si>
+    <t>finishedfloor1squarefeet</t>
+  </si>
+  <si>
+    <t>[1672.0, 989.0, 1551.0, 1401.0, 664.0]</t>
+  </si>
+  <si>
+    <t>calculatedfinishedsquarefeet</t>
+  </si>
+  <si>
+    <t>[1200.0, 1923.0, 1098.0, 2194.0, 1684.0]</t>
+  </si>
+  <si>
+    <t>finishedsquarefeet12</t>
+  </si>
+  <si>
+    <t>[924.0, 1644.0, 4124.0, 1487.0, 2060.0]</t>
+  </si>
+  <si>
+    <t>finishedsquarefeet13</t>
+  </si>
+  <si>
+    <t>[1296.0, 1296.0, 1440.0, 1152.0, 768.0]</t>
+  </si>
+  <si>
+    <t>finishedsquarefeet15</t>
+  </si>
+  <si>
+    <t>[1088.0, 21042.0, 2904.0, 2368.0, 2685.0]</t>
+  </si>
+  <si>
+    <t>finishedsquarefeet50</t>
+  </si>
+  <si>
+    <t>[664.0, 1169.0, 1730.0, 773.0, 924.0]</t>
+  </si>
+  <si>
+    <t>finishedsquarefeet6</t>
+  </si>
+  <si>
+    <t>[1485.0, 1168.0, 861.0, 3843.0, 986.0]</t>
+  </si>
+  <si>
+    <t>fips</t>
+  </si>
+  <si>
+    <t>[6037.0, 6059.0, 6059.0, 6037.0, 6037.0]</t>
+  </si>
+  <si>
+    <t>fireplacecnt</t>
+  </si>
+  <si>
+    <t>[1.0, 1.0, 3.0, 1.0, 1.0]</t>
+  </si>
+  <si>
+    <t>fullbathcnt</t>
+  </si>
+  <si>
+    <t>[2.0, 1.0, 1.0, 2.0, 3.0]</t>
+  </si>
+  <si>
+    <t>garagecarcnt</t>
+  </si>
+  <si>
+    <t>[2.0, 2.0, 2.0, 1.0, 2.0]</t>
+  </si>
+  <si>
+    <t>garagetotalsqft</t>
+  </si>
+  <si>
+    <t>[495.0, 400.0, 504.0, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t>hashottuborspa</t>
+  </si>
+  <si>
+    <t>str</t>
+  </si>
+  <si>
+    <t>[True, True, True, True, True]</t>
+  </si>
+  <si>
+    <t>heatingorsystemtypeid</t>
+  </si>
+  <si>
+    <t>[7.0, 2.0, 2.0, 2.0, 2.0]</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>[33768978.0, 34055117.0, 33805500.0, 34125450.0, 33630976.0]</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>[-118862129.0, -118752767.0, -118131733.0, -118143495.0, -118637816.0]</t>
+  </si>
+  <si>
+    <t>lotsizesquarefeet</t>
+  </si>
+  <si>
+    <t>[4896.0, 6500.0, 4065.0, 7257.0, 4773.0]</t>
+  </si>
+  <si>
+    <t>poolcnt</t>
+  </si>
+  <si>
+    <t>poolsizesum</t>
+  </si>
+  <si>
+    <t>[540.0, 356.0, 442.0, 800.0, 450.0]</t>
+  </si>
+  <si>
+    <t>pooltypeid10</t>
+  </si>
+  <si>
+    <t>pooltypeid2</t>
+  </si>
+  <si>
+    <t>pooltypeid7</t>
+  </si>
+  <si>
+    <t>propertycountylandusecode</t>
+  </si>
+  <si>
+    <t>['122', '34', '010C', '0200', '0200']</t>
+  </si>
+  <si>
+    <t>propertylandusetypeid</t>
+  </si>
+  <si>
+    <t>[261.0, 261.0, 261.0, 261.0, 266.0]</t>
+  </si>
+  <si>
+    <t>propertyzoningdesc</t>
+  </si>
+  <si>
+    <t>['LARS', 'LAR2', 'WCR17500*', 'LAR1', 'LBR1N']</t>
+  </si>
+  <si>
+    <t>rawcensustractandblock</t>
+  </si>
+  <si>
+    <t>[61110077.001038, 60590994.17100699, 60374070.013009, 60375335.032001, 60590993.051006995]</t>
+  </si>
+  <si>
+    <t>regionidcity</t>
+  </si>
+  <si>
+    <t>[10241.0, 37015.0, 12447.0, 21412.0, 5534.0]</t>
+  </si>
+  <si>
+    <t>regionidcounty</t>
+  </si>
+  <si>
+    <t>[3101.0, 3101.0, 3101.0, 3101.0, 1286.0]</t>
+  </si>
+  <si>
+    <t>regionidneighborhood</t>
+  </si>
+  <si>
+    <t>[276157.0, 31817.0, 274857.0, 276119.0, 268551.0]</t>
+  </si>
+  <si>
+    <t>regionidzip</t>
+  </si>
+  <si>
+    <t>[97089.0, 96492.0, 96159.0, 96492.0, 96993.0]</t>
+  </si>
+  <si>
+    <t>roomcnt</t>
+  </si>
+  <si>
+    <t>[0.0, 0.0, 0.0, 0.0, 4.0]</t>
+  </si>
+  <si>
+    <t>storytypeid</t>
+  </si>
+  <si>
     <t>[7.0, 7.0, 7.0, 7.0, 7.0]</t>
   </si>
   <si>
-    <t>basementsqft</t>
-  </si>
-  <si>
-    <t>[406.0, 645.0, 64.0, 600.0, 2029.0]</t>
-  </si>
-  <si>
-    <t>bathroomcnt</t>
-  </si>
-  <si>
-    <t>[2.0, 1.5, 2.0, 2.0, 2.0]</t>
-  </si>
-  <si>
-    <t>bedroomcnt</t>
-  </si>
-  <si>
-    <t>[4.0, 3.0, 2.0, 3.0, 3.0]</t>
-  </si>
-  <si>
-    <t>buildingclasstypeid</t>
-  </si>
-  <si>
-    <t>[4.0, 4.0, 3.0, 4.0, 3.0]</t>
-  </si>
-  <si>
-    <t>buildingqualitytypeid</t>
-  </si>
-  <si>
-    <t>[7.0, 7.0, 4.0, 4.0, 4.0]</t>
-  </si>
-  <si>
-    <t>calculatedbathnbr</t>
-  </si>
-  <si>
-    <t>[3.0, 2.0, 3.0, 1.0, 1.5]</t>
-  </si>
-  <si>
-    <t>decktypeid</t>
-  </si>
-  <si>
-    <t>[66.0, 66.0, 66.0, 66.0, 66.0]</t>
-  </si>
-  <si>
-    <t>finishedfloor1squarefeet</t>
-  </si>
-  <si>
-    <t>[1474.0, 1375.0, 1096.0, 707.0, 1450.0]</t>
-  </si>
-  <si>
-    <t>calculatedfinishedsquarefeet</t>
-  </si>
-  <si>
-    <t>[738.0, 819.0, 700.0, 1156.0, 1708.0]</t>
-  </si>
-  <si>
-    <t>finishedsquarefeet12</t>
-  </si>
-  <si>
-    <t>[1447.0, 1026.0, 1072.0, 1800.0, 1082.0]</t>
-  </si>
-  <si>
-    <t>finishedsquarefeet13</t>
-  </si>
-  <si>
-    <t>[1392.0, 1440.0, 1248.0, 1296.0, 1440.0]</t>
-  </si>
-  <si>
-    <t>finishedsquarefeet15</t>
-  </si>
-  <si>
-    <t>[2208.0, 3264.0, 938.0, 2122.0, 1564.0]</t>
-  </si>
-  <si>
-    <t>finishedsquarefeet50</t>
-  </si>
-  <si>
-    <t>[1040.0, 1070.0, 1453.0, 1756.0, 1473.0]</t>
-  </si>
-  <si>
-    <t>finishedsquarefeet6</t>
-  </si>
-  <si>
-    <t>[1870.0, 1714.0, 3960.0, 2732.0, 5057.0]</t>
-  </si>
-  <si>
-    <t>fips</t>
-  </si>
-  <si>
-    <t>[6037.0, 6037.0, 6037.0, 6037.0, 6037.0]</t>
-  </si>
-  <si>
-    <t>fireplacecnt</t>
-  </si>
-  <si>
-    <t>[1.0, 1.0, 1.0, 1.0, 2.0]</t>
-  </si>
-  <si>
-    <t>fullbathcnt</t>
-  </si>
-  <si>
-    <t>[1.0, 2.0, 1.0, 2.0, 2.0]</t>
-  </si>
-  <si>
-    <t>garagecarcnt</t>
-  </si>
-  <si>
-    <t>[2.0, 2.0, 0.0, 2.0, 2.0]</t>
-  </si>
-  <si>
-    <t>garagetotalsqft</t>
-  </si>
-  <si>
-    <t>[504.0, 666.0, 410.0, 819.0, 484.0]</t>
-  </si>
-  <si>
-    <t>hashottuborspa</t>
-  </si>
-  <si>
-    <t>str</t>
-  </si>
-  <si>
-    <t>[True, True, True, True, True]</t>
-  </si>
-  <si>
-    <t>heatingorsystemtypeid</t>
-  </si>
-  <si>
-    <t>[2.0, 2.0, 7.0, 7.0, 7.0]</t>
-  </si>
-  <si>
-    <t>latitude</t>
-  </si>
-  <si>
-    <t>[34270910.0, 33776477.0, 34089600.0, 34245033.0, 33609900.0]</t>
-  </si>
-  <si>
-    <t>longitude</t>
-  </si>
-  <si>
-    <t>[-118405261.0, -117906703.0, -118482440.0, -118242687.0, -118259205.0]</t>
-  </si>
-  <si>
-    <t>lotsizesquarefeet</t>
-  </si>
-  <si>
-    <t>[18681.0, 23822.0, 7501.0, 3840.0, 5163.0]</t>
-  </si>
-  <si>
-    <t>poolcnt</t>
-  </si>
-  <si>
-    <t>poolsizesum</t>
-  </si>
-  <si>
-    <t>[450.0, 651.0, 358.0, 473.0, 50.0]</t>
-  </si>
-  <si>
-    <t>pooltypeid10</t>
-  </si>
-  <si>
-    <t>pooltypeid2</t>
-  </si>
-  <si>
-    <t>pooltypeid7</t>
-  </si>
-  <si>
-    <t>propertycountylandusecode</t>
-  </si>
-  <si>
-    <t>['0100', '0100', '0100', '122', '0100']</t>
-  </si>
-  <si>
-    <t>propertylandusetypeid</t>
-  </si>
-  <si>
-    <t>[261.0, 261.0, 261.0, 261.0, 261.0]</t>
-  </si>
-  <si>
-    <t>propertyzoningdesc</t>
-  </si>
-  <si>
-    <t>['LAR1', 'LCC2*', 'MNRS', 'LAR1', 'LCR320U*']</t>
-  </si>
-  <si>
-    <t>rawcensustractandblock</t>
-  </si>
-  <si>
-    <t>[60379005.013011001, 60590525.203004003, 60371973.002001002, 60374060.001000002, 60590879.022007994]</t>
-  </si>
-  <si>
-    <t>regionidcity</t>
-  </si>
-  <si>
-    <t>[42150.0, 53636.0, 5534.0, 12447.0, 26531.0]</t>
-  </si>
-  <si>
-    <t>regionidcounty</t>
-  </si>
-  <si>
-    <t>[3101.0, 2061.0, 1286.0, 3101.0, 3101.0]</t>
-  </si>
-  <si>
-    <t>regionidneighborhood</t>
-  </si>
-  <si>
-    <t>[416965.0, 275078.0, 416303.0, 48570.0, 41131.0]</t>
-  </si>
-  <si>
-    <t>regionidzip</t>
-  </si>
-  <si>
-    <t>[97329.0, 96990.0, 96229.0, 96962.0, 96485.0]</t>
-  </si>
-  <si>
-    <t>roomcnt</t>
-  </si>
-  <si>
-    <t>[0.0, 0.0, 6.0, 8.0, 0.0]</t>
-  </si>
-  <si>
-    <t>storytypeid</t>
-  </si>
-  <si>
     <t>threequarterbathnbr</t>
   </si>
   <si>
     <t>typeconstructiontypeid</t>
   </si>
   <si>
-    <t>[6.0, 6.0, 6.0, 6.0, 4.0]</t>
+    <t>[6.0, 6.0, 6.0, 6.0, 6.0]</t>
   </si>
   <si>
     <t>unitcnt</t>
   </si>
   <si>
+    <t>[1.0, 1.0, 1.0, 2.0, 1.0]</t>
+  </si>
+  <si>
     <t>yardbuildingsqft17</t>
   </si>
   <si>
-    <t>[400.0, 450.0, 340.0, 304.0, 176.0]</t>
+    <t>[160.0, 1094.0, 464.0, 288.0, 377.0]</t>
   </si>
   <si>
     <t>yardbuildingsqft26</t>
   </si>
   <si>
-    <t>[113.0, 224.0, 90.0, 100.0, 100.0]</t>
+    <t>[303.0, 225.0, 462.0, 28.0, 70.0]</t>
   </si>
   <si>
     <t>yearbuilt</t>
   </si>
   <si>
-    <t>[1982.0, 1988.0, 1923.0, 1968.0, 1995.0]</t>
+    <t>[1974.0, 1922.0, 1958.0, 1987.0, 1964.0]</t>
   </si>
   <si>
     <t>numberofstories</t>
   </si>
   <si>
-    <t>[1.0, 1.0, 1.0, 2.0, 1.0]</t>
+    <t>[1.0, 2.0, 1.0, 1.0, 2.0]</t>
   </si>
   <si>
     <t>fireplaceflag</t>
@@ -326,13 +332,13 @@
     <t>structuretaxvaluedollarcnt</t>
   </si>
   <si>
-    <t>[94798.0, 416867.0, 140370.0, 89528.0, 177213.0]</t>
+    <t>[338787.0, 249520.0, 98520.0, 162391.0, 88378.0]</t>
   </si>
   <si>
     <t>taxvaluedollarcnt</t>
   </si>
   <si>
-    <t>[445569.0, 532345.0, 235586.0, 374718.0, 553576.0]</t>
+    <t>[75000.0, 1739043.0, 544388.0, 447260.0, 586987.0]</t>
   </si>
   <si>
     <t>assessmentyear</t>
@@ -344,13 +350,13 @@
     <t>landtaxvaluedollarcnt</t>
   </si>
   <si>
-    <t>[15072.0, 145067.0, 85800.0, 110466.0, 46603.0]</t>
+    <t>[69155.0, 1957180.0, 234512.0, 140065.0, 27271.0]</t>
   </si>
   <si>
     <t>taxamount</t>
   </si>
   <si>
-    <t>[3488.4200000000001, 4043.1399999999999, 2342.8200000000002, 1618.1099999999999, 1497.3199999999999]</t>
+    <t>[4389.53, 4956.5, 4774.17, 5547.84, 1304.96]</t>
   </si>
   <si>
     <t>taxdelinquencyflag</t>
@@ -362,13 +368,13 @@
     <t>taxdelinquencyyear</t>
   </si>
   <si>
-    <t>[10.0, 15.0, 13.0, 13.0, 15.0]</t>
+    <t>[9.0, 15.0, 15.0, 15.0, 15.0]</t>
   </si>
   <si>
     <t>censustractandblock</t>
   </si>
   <si>
-    <t>[60375014003004.0, 60374033163003.0, 60374027031003.0, 60374086302010.0, 60371371031000.0]</t>
+    <t>[60375545221006.0, 60375017002008.0, 60371203001005.0, 60374812013007.0, 61110054011022.0]</t>
   </si>
 </sst>
 </file>
@@ -454,7 +460,7 @@
     <cellStyle builtinId="45" hidden="0" name="Accent5" xfId="1"/>
     <cellStyle builtinId="28" hidden="0" name="Neutral" xfId="2"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="009C0006"/>
@@ -472,6 +478,36 @@
       <fill>
         <patternFill>
           <bgColor rgb="00C6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="0008306B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="009ECAE1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="00A63603"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="00FDD0A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="003F007D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="00DADAEB"/>
         </patternFill>
       </fill>
     </dxf>
@@ -778,13 +814,13 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" width="42"/>
-    <col customWidth="1" max="2" min="2" width="30"/>
+    <col customWidth="1" max="2" min="2" width="15"/>
     <col customWidth="1" max="3" min="3" width="100"/>
-    <col customWidth="1" max="4" min="4" width="30"/>
-    <col customWidth="1" max="5" min="5" width="30"/>
-    <col customWidth="1" max="6" min="6" width="30"/>
-    <col customWidth="1" max="7" min="7" width="30"/>
-    <col customWidth="1" max="8" min="8" width="30"/>
+    <col customWidth="1" max="4" min="4" width="21"/>
+    <col customWidth="1" max="5" min="5" width="18"/>
+    <col customWidth="1" max="6" min="6" width="24"/>
+    <col customWidth="1" max="7" min="7" width="25.5"/>
+    <col customWidth="1" max="8" min="8" width="25.5"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="20" r="0" spans="1:8"/>
@@ -1888,7 +1924,7 @@
         <v>9</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="D43" s="4" t="n">
         <v>1</v>
@@ -1908,7 +1944,7 @@
     </row>
     <row customHeight="1" ht="20" r="44" spans="1:8">
       <c r="A44" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>9</v>
@@ -1934,13 +1970,13 @@
     </row>
     <row customHeight="1" ht="20" r="45" spans="1:8">
       <c r="A45" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D45" s="4" t="n">
         <v>5</v>
@@ -1960,13 +1996,13 @@
     </row>
     <row customHeight="1" ht="20" r="46" spans="1:8">
       <c r="A46" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="D46" s="4" t="n">
         <v>146</v>
@@ -1986,13 +2022,13 @@
     </row>
     <row customHeight="1" ht="20" r="47" spans="1:8">
       <c r="A47" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D47" s="4" t="n">
         <v>1636</v>
@@ -2012,13 +2048,13 @@
     </row>
     <row customHeight="1" ht="20" r="48" spans="1:8">
       <c r="A48" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D48" s="4" t="n">
         <v>594</v>
@@ -2038,13 +2074,13 @@
     </row>
     <row customHeight="1" ht="20" r="49" spans="1:8">
       <c r="A49" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D49" s="4" t="n">
         <v>168</v>
@@ -2064,13 +2100,13 @@
     </row>
     <row customHeight="1" ht="20" r="50" spans="1:8">
       <c r="A50" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D50" s="4" t="n">
         <v>12</v>
@@ -2090,7 +2126,7 @@
     </row>
     <row customHeight="1" ht="20" r="51" spans="1:8">
       <c r="A51" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>54</v>
@@ -2116,13 +2152,13 @@
     </row>
     <row customHeight="1" ht="20" r="52" spans="1:8">
       <c r="A52" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D52" s="4" t="n">
         <v>426150</v>
@@ -2142,13 +2178,13 @@
     </row>
     <row customHeight="1" ht="20" r="53" spans="1:8">
       <c r="A53" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D53" s="4" t="n">
         <v>638920</v>
@@ -2168,13 +2204,13 @@
     </row>
     <row customHeight="1" ht="20" r="54" spans="1:8">
       <c r="A54" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D54" s="4" t="n">
         <v>14</v>
@@ -2194,13 +2230,13 @@
     </row>
     <row customHeight="1" ht="20" r="55" spans="1:8">
       <c r="A55" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D55" s="4" t="n">
         <v>531408</v>
@@ -2220,13 +2256,13 @@
     </row>
     <row customHeight="1" ht="20" r="56" spans="1:8">
       <c r="A56" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D56" s="4" t="n">
         <v>1045757</v>
@@ -2246,13 +2282,13 @@
     </row>
     <row customHeight="1" ht="20" r="57" spans="1:8">
       <c r="A57" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D57" s="4" t="n">
         <v>1</v>
@@ -2272,13 +2308,13 @@
     </row>
     <row customHeight="1" ht="20" r="58" spans="1:8">
       <c r="A58" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D58" s="4" t="n">
         <v>32</v>
@@ -2298,13 +2334,13 @@
     </row>
     <row customHeight="1" ht="20" r="59" spans="1:8">
       <c r="A59" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D59" s="4" t="n">
         <v>96771</v>
@@ -2330,12 +2366,21 @@
     <cfRule dxfId="1" priority="2" stopIfTrue="1" type="expression">
       <formula>B2="key"</formula>
     </cfRule>
+    <cfRule dxfId="2" priority="3" stopIfTrue="1" type="expression">
+      <formula>B2="numeric"</formula>
+    </cfRule>
+    <cfRule dxfId="3" priority="4" stopIfTrue="1" type="expression">
+      <formula>B2="str"</formula>
+    </cfRule>
+    <cfRule dxfId="4" priority="5" stopIfTrue="1" type="expression">
+      <formula>B2="date"</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D59">
-    <cfRule dxfId="0" priority="3" stopIfTrue="1" type="expression">
+    <cfRule dxfId="0" priority="6" stopIfTrue="1" type="expression">
       <formula>D2=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="4" stopIfTrue="1" type="expression">
+    <cfRule dxfId="0" priority="7" stopIfTrue="1" type="expression">
       <formula>D2=1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/test/output/data_schema_properties_2016.xlsx
+++ b/test/output/data_schema_properties_2016.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="schema" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="schema" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="119">
   <si>
     <t>column</t>
   </si>
@@ -23,6 +23,9 @@
     <t>type</t>
   </si>
   <si>
+    <t>include</t>
+  </si>
+  <si>
     <t>sample_value</t>
   </si>
   <si>
@@ -47,133 +50,133 @@
     <t>numeric</t>
   </si>
   <si>
-    <t>[11475661, 12226447, 14693504, 14389686, 11431625]</t>
+    <t>[14232612, 14112525, 17231434, 11329694, 11436067]</t>
   </si>
   <si>
     <t>airconditioningtypeid</t>
   </si>
   <si>
+    <t>[13.0, 1.0, 1.0, 1.0, 1.0]</t>
+  </si>
+  <si>
+    <t>architecturalstyletypeid</t>
+  </si>
+  <si>
+    <t>[7.0, 7.0, 7.0, 7.0, 7.0]</t>
+  </si>
+  <si>
+    <t>basementsqft</t>
+  </si>
+  <si>
+    <t>[1292.0, 1041.0, 1030.0, 942.0, 144.0]</t>
+  </si>
+  <si>
+    <t>bathroomcnt</t>
+  </si>
+  <si>
+    <t>[2.5, 2.0, 2.5, 1.0, 0.0]</t>
+  </si>
+  <si>
+    <t>bedroomcnt</t>
+  </si>
+  <si>
+    <t>[2.0, 3.0, 2.0, 4.0, 4.0]</t>
+  </si>
+  <si>
+    <t>buildingclasstypeid</t>
+  </si>
+  <si>
+    <t>[4.0, 4.0, 4.0, 3.0, 4.0]</t>
+  </si>
+  <si>
+    <t>buildingqualitytypeid</t>
+  </si>
+  <si>
+    <t>[7.0, 7.0, 4.0, 7.0, 4.0]</t>
+  </si>
+  <si>
+    <t>calculatedbathnbr</t>
+  </si>
+  <si>
+    <t>[1.0, 2.0, 2.0, 2.0, 3.0]</t>
+  </si>
+  <si>
+    <t>decktypeid</t>
+  </si>
+  <si>
+    <t>[66.0, 66.0, 66.0, 66.0, 66.0]</t>
+  </si>
+  <si>
+    <t>finishedfloor1squarefeet</t>
+  </si>
+  <si>
+    <t>[2084.0, 1252.0, 1957.0, 1498.0, 1167.0]</t>
+  </si>
+  <si>
+    <t>calculatedfinishedsquarefeet</t>
+  </si>
+  <si>
+    <t>[1095.0, 1174.0, 2167.0, 1461.0, 1132.0]</t>
+  </si>
+  <si>
+    <t>finishedsquarefeet12</t>
+  </si>
+  <si>
+    <t>[2097.0, 672.0, 3360.0, 2477.0, 916.0]</t>
+  </si>
+  <si>
+    <t>finishedsquarefeet13</t>
+  </si>
+  <si>
+    <t>[768.0, 1368.0, 1440.0, 1120.0, 720.0]</t>
+  </si>
+  <si>
+    <t>finishedsquarefeet15</t>
+  </si>
+  <si>
+    <t>[1890.0, 1150.0, 1318.0, 3975.0, 2131.0]</t>
+  </si>
+  <si>
+    <t>finishedsquarefeet50</t>
+  </si>
+  <si>
+    <t>[1291.0, 2848.0, 3114.0, 1328.0, 1574.0]</t>
+  </si>
+  <si>
+    <t>finishedsquarefeet6</t>
+  </si>
+  <si>
+    <t>[1922.0, 3760.0, 3680.0, 1794.0, 720.0]</t>
+  </si>
+  <si>
+    <t>fips</t>
+  </si>
+  <si>
+    <t>[6037.0, 6037.0, 6037.0, 6059.0, 6059.0]</t>
+  </si>
+  <si>
+    <t>fireplacecnt</t>
+  </si>
+  <si>
     <t>[1.0, 1.0, 1.0, 1.0, 1.0]</t>
   </si>
   <si>
-    <t>architecturalstyletypeid</t>
-  </si>
-  <si>
-    <t>[7.0, 7.0, 7.0, 7.0, 8.0]</t>
-  </si>
-  <si>
-    <t>basementsqft</t>
-  </si>
-  <si>
-    <t>[308.0, 651.0, 220.0, 1179.0, 228.0]</t>
-  </si>
-  <si>
-    <t>bathroomcnt</t>
-  </si>
-  <si>
-    <t>[1.0, 1.0, 3.0, 2.5, 2.0]</t>
-  </si>
-  <si>
-    <t>bedroomcnt</t>
-  </si>
-  <si>
-    <t>[4.0, 2.0, 4.0, 4.0, 4.0]</t>
-  </si>
-  <si>
-    <t>buildingclasstypeid</t>
-  </si>
-  <si>
-    <t>[3.0, 4.0, 4.0, 4.0, 4.0]</t>
-  </si>
-  <si>
-    <t>buildingqualitytypeid</t>
-  </si>
-  <si>
-    <t>[4.0, 7.0, 7.0, 4.0, 7.0]</t>
-  </si>
-  <si>
-    <t>calculatedbathnbr</t>
-  </si>
-  <si>
-    <t>[3.0, 3.0, 1.0, 2.0, 2.0]</t>
-  </si>
-  <si>
-    <t>decktypeid</t>
-  </si>
-  <si>
-    <t>[66.0, 66.0, 66.0, 66.0, 66.0]</t>
-  </si>
-  <si>
-    <t>finishedfloor1squarefeet</t>
-  </si>
-  <si>
-    <t>[1672.0, 989.0, 1551.0, 1401.0, 664.0]</t>
-  </si>
-  <si>
-    <t>calculatedfinishedsquarefeet</t>
-  </si>
-  <si>
-    <t>[1200.0, 1923.0, 1098.0, 2194.0, 1684.0]</t>
-  </si>
-  <si>
-    <t>finishedsquarefeet12</t>
-  </si>
-  <si>
-    <t>[924.0, 1644.0, 4124.0, 1487.0, 2060.0]</t>
-  </si>
-  <si>
-    <t>finishedsquarefeet13</t>
-  </si>
-  <si>
-    <t>[1296.0, 1296.0, 1440.0, 1152.0, 768.0]</t>
-  </si>
-  <si>
-    <t>finishedsquarefeet15</t>
-  </si>
-  <si>
-    <t>[1088.0, 21042.0, 2904.0, 2368.0, 2685.0]</t>
-  </si>
-  <si>
-    <t>finishedsquarefeet50</t>
-  </si>
-  <si>
-    <t>[664.0, 1169.0, 1730.0, 773.0, 924.0]</t>
-  </si>
-  <si>
-    <t>finishedsquarefeet6</t>
-  </si>
-  <si>
-    <t>[1485.0, 1168.0, 861.0, 3843.0, 986.0]</t>
-  </si>
-  <si>
-    <t>fips</t>
-  </si>
-  <si>
-    <t>[6037.0, 6059.0, 6059.0, 6037.0, 6037.0]</t>
-  </si>
-  <si>
-    <t>fireplacecnt</t>
-  </si>
-  <si>
-    <t>[1.0, 1.0, 3.0, 1.0, 1.0]</t>
-  </si>
-  <si>
     <t>fullbathcnt</t>
   </si>
   <si>
-    <t>[2.0, 1.0, 1.0, 2.0, 3.0]</t>
+    <t>[3.0, 3.0, 2.0, 2.0, 1.0]</t>
   </si>
   <si>
     <t>garagecarcnt</t>
   </si>
   <si>
-    <t>[2.0, 2.0, 2.0, 1.0, 2.0]</t>
+    <t>[1.0, 2.0, 2.0, 2.0, 2.0]</t>
   </si>
   <si>
     <t>garagetotalsqft</t>
   </si>
   <si>
-    <t>[495.0, 400.0, 504.0, 0.0, 0.0]</t>
+    <t>[462.0, 557.0, 480.0, 360.0, 460.0]</t>
   </si>
   <si>
     <t>hashottuborspa</t>
@@ -188,25 +191,25 @@
     <t>heatingorsystemtypeid</t>
   </si>
   <si>
-    <t>[7.0, 2.0, 2.0, 2.0, 2.0]</t>
+    <t>[2.0, 2.0, 2.0, 2.0, 2.0]</t>
   </si>
   <si>
     <t>latitude</t>
   </si>
   <si>
-    <t>[33768978.0, 34055117.0, 33805500.0, 34125450.0, 33630976.0]</t>
+    <t>[33832989.0, 33851950.0, 33934683.0, 33716294.0, 33827651.0]</t>
   </si>
   <si>
     <t>longitude</t>
   </si>
   <si>
-    <t>[-118862129.0, -118752767.0, -118131733.0, -118143495.0, -118637816.0]</t>
+    <t>[-118503506.0, -118186109.0, -118102599.0, -118567903.0, -117700457.0]</t>
   </si>
   <si>
     <t>lotsizesquarefeet</t>
   </si>
   <si>
-    <t>[4896.0, 6500.0, 4065.0, 7257.0, 4773.0]</t>
+    <t>[6515.0, 9297.0, 24349.0, 58370.0, 3519.0]</t>
   </si>
   <si>
     <t>poolcnt</t>
@@ -215,7 +218,7 @@
     <t>poolsizesum</t>
   </si>
   <si>
-    <t>[540.0, 356.0, 442.0, 800.0, 450.0]</t>
+    <t>[945.0, 450.0, 900.0, 432.0, 448.0]</t>
   </si>
   <si>
     <t>pooltypeid10</t>
@@ -230,63 +233,60 @@
     <t>propertycountylandusecode</t>
   </si>
   <si>
-    <t>['122', '34', '010C', '0200', '0200']</t>
+    <t>['0101', '010D', '122', '010D', '0100']</t>
   </si>
   <si>
     <t>propertylandusetypeid</t>
   </si>
   <si>
-    <t>[261.0, 261.0, 261.0, 261.0, 266.0]</t>
+    <t>[261.0, 261.0, 247.0, 261.0, 261.0]</t>
   </si>
   <si>
     <t>propertyzoningdesc</t>
   </si>
   <si>
-    <t>['LARS', 'LAR2', 'WCR17500*', 'LAR1', 'LBR1N']</t>
+    <t>['PDA21*', 'LCM1*', 'LCRA06', 'LCRA1OOOO-', 'CVR181/2']</t>
   </si>
   <si>
     <t>rawcensustractandblock</t>
   </si>
   <si>
-    <t>[61110077.001038, 60590994.17100699, 60374070.013009, 60375335.032001, 60590993.051006995]</t>
+    <t>[60591106.053012, 60590626.042029, 60590635.001, 60375408.003006004, 60372623.011002004]</t>
   </si>
   <si>
     <t>regionidcity</t>
   </si>
   <si>
-    <t>[10241.0, 37015.0, 12447.0, 21412.0, 5534.0]</t>
+    <t>[53571.0, 46298.0, 12447.0, 52842.0, 13150.0]</t>
   </si>
   <si>
     <t>regionidcounty</t>
   </si>
   <si>
-    <t>[3101.0, 3101.0, 3101.0, 3101.0, 1286.0]</t>
+    <t>[3101.0, 3101.0, 1286.0, 1286.0, 3101.0]</t>
   </si>
   <si>
     <t>regionidneighborhood</t>
   </si>
   <si>
-    <t>[276157.0, 31817.0, 274857.0, 276119.0, 268551.0]</t>
+    <t>[274765.0, 47880.0, 268588.0, 33183.0, 113886.0]</t>
   </si>
   <si>
     <t>regionidzip</t>
   </si>
   <si>
-    <t>[97089.0, 96492.0, 96159.0, 96492.0, 96993.0]</t>
+    <t>[96336.0, 96533.0, 97116.0, 96971.0, 96971.0]</t>
   </si>
   <si>
     <t>roomcnt</t>
   </si>
   <si>
-    <t>[0.0, 0.0, 0.0, 0.0, 4.0]</t>
+    <t>[8.0, 0.0, 8.0, 0.0, 0.0]</t>
   </si>
   <si>
     <t>storytypeid</t>
   </si>
   <si>
-    <t>[7.0, 7.0, 7.0, 7.0, 7.0]</t>
-  </si>
-  <si>
     <t>threequarterbathnbr</t>
   </si>
   <si>
@@ -299,31 +299,28 @@
     <t>unitcnt</t>
   </si>
   <si>
-    <t>[1.0, 1.0, 1.0, 2.0, 1.0]</t>
-  </si>
-  <si>
     <t>yardbuildingsqft17</t>
   </si>
   <si>
-    <t>[160.0, 1094.0, 464.0, 288.0, 377.0]</t>
+    <t>[406.0, 240.0, 216.0, 598.0, 168.0]</t>
   </si>
   <si>
     <t>yardbuildingsqft26</t>
   </si>
   <si>
-    <t>[303.0, 225.0, 462.0, 28.0, 70.0]</t>
+    <t>[120.0, 348.0, 84.0, 37.0, 84.0]</t>
   </si>
   <si>
     <t>yearbuilt</t>
   </si>
   <si>
-    <t>[1974.0, 1922.0, 1958.0, 1987.0, 1964.0]</t>
+    <t>[1955.0, 1976.0, 1976.0, 1983.0, 1990.0]</t>
   </si>
   <si>
     <t>numberofstories</t>
   </si>
   <si>
-    <t>[1.0, 2.0, 1.0, 1.0, 2.0]</t>
+    <t>[2.0, 1.0, 1.0, 3.0, 1.0]</t>
   </si>
   <si>
     <t>fireplaceflag</t>
@@ -332,13 +329,13 @@
     <t>structuretaxvaluedollarcnt</t>
   </si>
   <si>
-    <t>[338787.0, 249520.0, 98520.0, 162391.0, 88378.0]</t>
+    <t>[23268.0, 256940.0, 309143.0, 1846700.0, 94821.0]</t>
   </si>
   <si>
     <t>taxvaluedollarcnt</t>
   </si>
   <si>
-    <t>[75000.0, 1739043.0, 544388.0, 447260.0, 586987.0]</t>
+    <t>[408128.0, 126718.0, 319050.0, 410000.0, 97369.0]</t>
   </si>
   <si>
     <t>assessmentyear</t>
@@ -350,13 +347,13 @@
     <t>landtaxvaluedollarcnt</t>
   </si>
   <si>
-    <t>[69155.0, 1957180.0, 234512.0, 140065.0, 27271.0]</t>
+    <t>[135967.0, 186726.0, 130100.0, 14448.0, 120020.0]</t>
   </si>
   <si>
     <t>taxamount</t>
   </si>
   <si>
-    <t>[4389.53, 4956.5, 4774.17, 5547.84, 1304.96]</t>
+    <t>[1468.34, 4219.4, 9611.74, 10694.98, 2252.83]</t>
   </si>
   <si>
     <t>taxdelinquencyflag</t>
@@ -368,13 +365,13 @@
     <t>taxdelinquencyyear</t>
   </si>
   <si>
-    <t>[9.0, 15.0, 15.0, 15.0, 15.0]</t>
+    <t>[14.0, 15.0, 11.0, 14.0, 15.0]</t>
   </si>
   <si>
     <t>censustractandblock</t>
   </si>
   <si>
-    <t>[60375545221006.0, 60375017002008.0, 60371203001005.0, 60374812013007.0, 61110054011022.0]</t>
+    <t>[60372753022000.0, 60590754044002.0, 60590881071001.0, 60376210021002.0, 60371397024003.0]</t>
   </si>
 </sst>
 </file>
@@ -805,7 +802,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -815,23 +812,24 @@
   <cols>
     <col customWidth="1" max="1" min="1" width="42"/>
     <col customWidth="1" max="2" min="2" width="15"/>
-    <col customWidth="1" max="3" min="3" width="100"/>
-    <col customWidth="1" max="4" min="4" width="21"/>
-    <col customWidth="1" max="5" min="5" width="18"/>
-    <col customWidth="1" max="6" min="6" width="24"/>
-    <col customWidth="1" max="7" min="7" width="25.5"/>
+    <col customWidth="1" max="3" min="3" width="15"/>
+    <col customWidth="1" max="4" min="4" width="100"/>
+    <col customWidth="1" max="5" min="5" width="21"/>
+    <col customWidth="1" max="6" min="6" width="18"/>
+    <col customWidth="1" max="7" min="7" width="24"/>
     <col customWidth="1" max="8" min="8" width="25.5"/>
+    <col customWidth="1" max="9" min="9" width="25.5"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="20" r="0" spans="1:8"/>
-    <row customHeight="1" ht="20" r="1" spans="1:8">
+    <row customHeight="1" ht="20" r="0" spans="1:9"/>
+    <row customHeight="1" ht="20" r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -849,256 +847,286 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row customHeight="1" ht="20" r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="2" spans="1:9">
       <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>2985217</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>10711725</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>12545094</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>169601949</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>7909965.06437721</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="3" spans="1:9">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>3.148585454642171</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="4" spans="1:9">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="4" t="n">
-        <v>2985217</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <v>10711725</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>12545094</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>169601949</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>7909965.06437721</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="3" spans="1:8">
-      <c r="A3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="F4" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>2.436089501518546</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="5" spans="1:9">
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>751</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>534</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>8516</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>538.6279706828607</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="6" spans="1:9">
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>37</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>1.077753596014586</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="7" spans="1:9">
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>21</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>1.275858581591177</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="8" spans="1:9">
+      <c r="A8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>0.5016803477144972</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="9" spans="1:9">
+      <c r="A9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="F9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="E3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>13</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>3.148585454642171</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="4" spans="1:8">
-      <c r="A4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="E4" s="4" t="n">
+      <c r="H9" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="I9" s="4" t="n">
+        <v>1.805351113900178</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="10" spans="1:9">
+      <c r="A10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>34</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="F4" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>27</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>2.436089501518546</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="5" spans="1:8">
-      <c r="A5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>751</v>
-      </c>
-      <c r="E5" s="4" t="n">
+      <c r="H10" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="F5" s="4" t="n">
-        <v>534</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>8516</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>538.6279706828607</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="6" spans="1:8">
-      <c r="A6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>37</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>1.077753596014586</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="7" spans="1:8">
-      <c r="A7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>21</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>1.275858581591177</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="8" spans="1:8">
-      <c r="A8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>0.5016803477144972</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="9" spans="1:8">
-      <c r="A9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>1.805351113900178</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="10" spans="1:8">
-      <c r="A10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>34</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="H10" s="4" t="n">
+      <c r="I10" s="4" t="n">
         <v>1.000736064417979</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="11" spans="1:8">
+    <row customHeight="1" ht="20" r="11" spans="1:9">
       <c r="A11" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="F11" s="4" t="n">
         <v>66</v>
@@ -1107,336 +1135,375 @@
         <v>66</v>
       </c>
       <c r="H11" s="4" t="n">
+        <v>66</v>
+      </c>
+      <c r="I11" s="4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="12" spans="1:8">
+    <row customHeight="1" ht="20" r="12" spans="1:9">
       <c r="A12" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="4" t="n">
         <v>4604</v>
       </c>
-      <c r="E12" s="4" t="n">
+      <c r="F12" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="F12" s="4" t="n">
+      <c r="G12" s="4" t="n">
         <v>1283</v>
       </c>
-      <c r="G12" s="4" t="n">
+      <c r="H12" s="4" t="n">
         <v>31303</v>
       </c>
-      <c r="H12" s="4" t="n">
+      <c r="I12" s="4" t="n">
         <v>632.8669819186815</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="13" spans="1:8">
+    <row customHeight="1" ht="20" r="13" spans="1:9">
       <c r="A13" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="4" t="n">
         <v>12587</v>
       </c>
-      <c r="E13" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="F13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4" t="n">
         <v>1572</v>
       </c>
-      <c r="G13" s="4" t="n">
+      <c r="H13" s="4" t="n">
         <v>952576</v>
       </c>
-      <c r="H13" s="4" t="n">
+      <c r="I13" s="4" t="n">
         <v>1819.780158720397</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="14" spans="1:8">
+    <row customHeight="1" ht="20" r="14" spans="1:9">
       <c r="A14" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="4" t="n">
         <v>10670</v>
       </c>
-      <c r="E14" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="F14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4" t="n">
         <v>1539</v>
       </c>
-      <c r="G14" s="4" t="n">
+      <c r="H14" s="4" t="n">
         <v>290345</v>
       </c>
-      <c r="H14" s="4" t="n">
+      <c r="I14" s="4" t="n">
         <v>971.0608311620564</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="15" spans="1:8">
+    <row customHeight="1" ht="20" r="15" spans="1:9">
       <c r="A15" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="4" t="n">
         <v>250</v>
       </c>
-      <c r="E15" s="4" t="n">
+      <c r="F15" s="4" t="n">
         <v>120</v>
       </c>
-      <c r="F15" s="4" t="n">
+      <c r="G15" s="4" t="n">
         <v>1296</v>
       </c>
-      <c r="G15" s="4" t="n">
+      <c r="H15" s="4" t="n">
         <v>2688</v>
       </c>
-      <c r="H15" s="4" t="n">
+      <c r="I15" s="4" t="n">
         <v>357.0497635764946</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="16" spans="1:8">
+    <row customHeight="1" ht="20" r="16" spans="1:9">
       <c r="A16" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="4" t="n">
         <v>8816</v>
       </c>
-      <c r="E16" s="4" t="n">
+      <c r="F16" s="4" t="n">
         <v>112</v>
       </c>
-      <c r="F16" s="4" t="n">
+      <c r="G16" s="4" t="n">
         <v>2172</v>
       </c>
-      <c r="G16" s="4" t="n">
+      <c r="H16" s="4" t="n">
         <v>820242</v>
       </c>
-      <c r="H16" s="4" t="n">
+      <c r="I16" s="4" t="n">
         <v>5447.414051804521</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="17" spans="1:8">
+    <row customHeight="1" ht="20" r="17" spans="1:9">
       <c r="A17" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C17" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="4" t="n">
         <v>4802</v>
       </c>
-      <c r="E17" s="4" t="n">
+      <c r="F17" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="F17" s="4" t="n">
+      <c r="G17" s="4" t="n">
         <v>1284</v>
       </c>
-      <c r="G17" s="4" t="n">
+      <c r="H17" s="4" t="n">
         <v>31303</v>
       </c>
-      <c r="H17" s="4" t="n">
+      <c r="I17" s="4" t="n">
         <v>664.4870695844113</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="18" spans="1:8">
+    <row customHeight="1" ht="20" r="18" spans="1:9">
       <c r="A18" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="4" t="n">
         <v>4251</v>
       </c>
-      <c r="E18" s="4" t="n">
+      <c r="F18" s="4" t="n">
         <v>117</v>
       </c>
-      <c r="F18" s="4" t="n">
+      <c r="G18" s="4" t="n">
         <v>1992</v>
       </c>
-      <c r="G18" s="4" t="n">
+      <c r="H18" s="4" t="n">
         <v>952576</v>
       </c>
-      <c r="H18" s="4" t="n">
+      <c r="I18" s="4" t="n">
         <v>7695.128064476132</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="19" spans="1:8">
+    <row customHeight="1" ht="20" r="19" spans="1:9">
       <c r="A19" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="4" t="n">
         <v>3</v>
-      </c>
-      <c r="E19" s="4" t="n">
-        <v>6037</v>
       </c>
       <c r="F19" s="4" t="n">
         <v>6037</v>
       </c>
       <c r="G19" s="4" t="n">
+        <v>6037</v>
+      </c>
+      <c r="H19" s="4" t="n">
         <v>6111</v>
       </c>
-      <c r="H19" s="4" t="n">
+      <c r="I19" s="4" t="n">
         <v>20.23278129069728</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="20" spans="1:8">
+    <row customHeight="1" ht="20" r="20" spans="1:9">
       <c r="A20" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="4" t="n">
+      <c r="F20" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="E20" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="H20" s="4" t="n">
+      <c r="I20" s="4" t="n">
         <v>0.4612721168654078</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="21" spans="1:8">
+    <row customHeight="1" ht="20" r="21" spans="1:9">
       <c r="A21" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C21" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="E21" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="F21" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="G21" s="4" t="n">
+      <c r="H21" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="H21" s="4" t="n">
+      <c r="I21" s="4" t="n">
         <v>0.9912052261590295</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="22" spans="1:8">
+    <row customHeight="1" ht="20" r="22" spans="1:9">
       <c r="A22" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C22" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="4" t="n">
         <v>24</v>
       </c>
-      <c r="E22" s="4" t="n">
+      <c r="F22" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="F22" s="4" t="n">
+      <c r="G22" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="G22" s="4" t="n">
+      <c r="H22" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="H22" s="4" t="n">
+      <c r="I22" s="4" t="n">
         <v>0.6100350379304633</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="23" spans="1:8">
+    <row customHeight="1" ht="20" r="23" spans="1:9">
       <c r="A23" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C23" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="4" t="n">
         <v>2240</v>
       </c>
-      <c r="E23" s="4" t="n">
+      <c r="F23" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="F23" s="4" t="n">
+      <c r="G23" s="4" t="n">
         <v>441</v>
       </c>
-      <c r="G23" s="4" t="n">
+      <c r="H23" s="4" t="n">
         <v>7749</v>
       </c>
-      <c r="H23" s="4" t="n">
+      <c r="I23" s="4" t="n">
         <v>245.4432800330768</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="24" spans="1:8">
+    <row customHeight="1" ht="20" r="24" spans="1:9">
       <c r="A24" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="4" t="n">
-        <v>1</v>
+      <c r="C24" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="E24" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F24" s="4" t="n">
         <v/>
@@ -1447,123 +1514,138 @@
       <c r="H24" s="4" t="n">
         <v/>
       </c>
-    </row>
-    <row customHeight="1" ht="20" r="25" spans="1:8">
+      <c r="I24" s="4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="25" spans="1:9">
       <c r="A25" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C25" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="E25" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="F25" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="G25" s="4" t="n">
+      <c r="H25" s="4" t="n">
         <v>24</v>
       </c>
-      <c r="H25" s="4" t="n">
+      <c r="I25" s="4" t="n">
         <v>3.293731777030039</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="26" spans="1:8">
+    <row customHeight="1" ht="20" r="26" spans="1:9">
       <c r="A26" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C26" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="4" t="n">
         <v>852325</v>
       </c>
-      <c r="E26" s="4" t="n">
+      <c r="F26" s="4" t="n">
         <v>33324388</v>
       </c>
-      <c r="F26" s="4" t="n">
+      <c r="G26" s="4" t="n">
         <v>34008249</v>
       </c>
-      <c r="G26" s="4" t="n">
+      <c r="H26" s="4" t="n">
         <v>34819650</v>
       </c>
-      <c r="H26" s="4" t="n">
+      <c r="I26" s="4" t="n">
         <v>243381.137390034</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="27" spans="1:8">
+    <row customHeight="1" ht="20" r="27" spans="1:9">
       <c r="A27" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C27" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="4" t="n">
         <v>1042550</v>
       </c>
-      <c r="E27" s="4" t="n">
+      <c r="F27" s="4" t="n">
         <v>-119475780</v>
       </c>
-      <c r="F27" s="4" t="n">
+      <c r="G27" s="4" t="n">
         <v>-118172540.5</v>
       </c>
-      <c r="G27" s="4" t="n">
+      <c r="H27" s="4" t="n">
         <v>-117554316</v>
       </c>
-      <c r="H27" s="4" t="n">
+      <c r="I27" s="4" t="n">
         <v>345317.0432116458</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="28" spans="1:8">
+    <row customHeight="1" ht="20" r="28" spans="1:9">
       <c r="A28" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C28" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="4" t="n">
         <v>69953</v>
       </c>
-      <c r="E28" s="4" t="n">
+      <c r="F28" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="F28" s="4" t="n">
+      <c r="G28" s="4" t="n">
         <v>7000</v>
       </c>
-      <c r="G28" s="4" t="n">
+      <c r="H28" s="4" t="n">
         <v>328263808</v>
       </c>
-      <c r="H28" s="4" t="n">
+      <c r="I28" s="4" t="n">
         <v>337592.3041009583</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="29" spans="1:8">
+    <row customHeight="1" ht="20" r="29" spans="1:9">
       <c r="A29" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="C29" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="E29" s="4" t="n">
         <v>1</v>
@@ -1575,47 +1657,53 @@
         <v>1</v>
       </c>
       <c r="H29" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" s="4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="30" spans="1:8">
+    <row customHeight="1" ht="20" r="30" spans="1:9">
       <c r="A30" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C30" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="4" t="n">
         <v>907</v>
       </c>
-      <c r="E30" s="4" t="n">
+      <c r="F30" s="4" t="n">
         <v>19</v>
       </c>
-      <c r="F30" s="4" t="n">
+      <c r="G30" s="4" t="n">
         <v>495</v>
       </c>
-      <c r="G30" s="4" t="n">
+      <c r="H30" s="4" t="n">
         <v>17410</v>
       </c>
-      <c r="H30" s="4" t="n">
+      <c r="I30" s="4" t="n">
         <v>191.3198624050437</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="31" spans="1:8">
+    <row customHeight="1" ht="20" r="31" spans="1:9">
       <c r="A31" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="C31" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="E31" s="4" t="n">
         <v>1</v>
@@ -1627,21 +1715,24 @@
         <v>1</v>
       </c>
       <c r="H31" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" s="4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="32" spans="1:8">
+    <row customHeight="1" ht="20" r="32" spans="1:9">
       <c r="A32" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="C32" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="E32" s="4" t="n">
         <v>1</v>
@@ -1653,21 +1744,24 @@
         <v>1</v>
       </c>
       <c r="H32" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" s="4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="33" spans="1:8">
+    <row customHeight="1" ht="20" r="33" spans="1:9">
       <c r="A33" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="C33" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="E33" s="4" t="n">
         <v>1</v>
@@ -1679,24 +1773,27 @@
         <v>1</v>
       </c>
       <c r="H33" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" s="4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="34" spans="1:8">
+    <row customHeight="1" ht="20" r="34" spans="1:9">
       <c r="A34" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D34" s="4" t="n">
+        <v>55</v>
+      </c>
+      <c r="C34" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34" s="4" t="n">
         <v>240</v>
-      </c>
-      <c r="E34" s="4" t="n">
-        <v/>
       </c>
       <c r="F34" s="4" t="n">
         <v/>
@@ -1707,48 +1804,54 @@
       <c r="H34" s="4" t="n">
         <v/>
       </c>
-    </row>
-    <row customHeight="1" ht="20" r="35" spans="1:8">
+      <c r="I34" s="4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="35" spans="1:9">
       <c r="A35" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D35" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C35" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="E35" s="4" t="n">
+      <c r="F35" s="4" t="n">
         <v>31</v>
       </c>
-      <c r="F35" s="4" t="n">
+      <c r="G35" s="4" t="n">
         <v>261</v>
       </c>
-      <c r="G35" s="4" t="n">
+      <c r="H35" s="4" t="n">
         <v>275</v>
       </c>
-      <c r="H35" s="4" t="n">
+      <c r="I35" s="4" t="n">
         <v>15.90816392614563</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="36" spans="1:8">
+    <row customHeight="1" ht="20" r="36" spans="1:9">
       <c r="A36" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D36" s="4" t="n">
+        <v>55</v>
+      </c>
+      <c r="C36" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E36" s="4" t="n">
         <v>5638</v>
-      </c>
-      <c r="E36" s="4" t="n">
-        <v/>
       </c>
       <c r="F36" s="4" t="n">
         <v/>
@@ -1759,178 +1862,199 @@
       <c r="H36" s="4" t="n">
         <v/>
       </c>
-    </row>
-    <row customHeight="1" ht="20" r="37" spans="1:8">
+      <c r="I36" s="4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="37" spans="1:9">
       <c r="A37" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D37" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C37" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" s="4" t="n">
         <v>99393</v>
       </c>
-      <c r="E37" s="4" t="n">
+      <c r="F37" s="4" t="n">
         <v>60371011.101</v>
       </c>
-      <c r="F37" s="4" t="n">
+      <c r="G37" s="4" t="n">
         <v>60375712.005002</v>
       </c>
-      <c r="G37" s="4" t="n">
+      <c r="H37" s="4" t="n">
         <v>61110091.003011</v>
       </c>
-      <c r="H37" s="4" t="n">
+      <c r="I37" s="4" t="n">
         <v>200811.6416852575</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="38" spans="1:8">
+    <row customHeight="1" ht="20" r="38" spans="1:9">
       <c r="A38" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D38" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C38" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" s="4" t="n">
         <v>186</v>
       </c>
-      <c r="E38" s="4" t="n">
+      <c r="F38" s="4" t="n">
         <v>3491</v>
       </c>
-      <c r="F38" s="4" t="n">
+      <c r="G38" s="4" t="n">
         <v>25218</v>
       </c>
-      <c r="G38" s="4" t="n">
+      <c r="H38" s="4" t="n">
         <v>396556</v>
       </c>
-      <c r="H38" s="4" t="n">
+      <c r="I38" s="4" t="n">
         <v>50727.45670965487</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="39" spans="1:8">
+    <row customHeight="1" ht="20" r="39" spans="1:9">
       <c r="A39" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D39" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C39" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="E39" s="4" t="n">
+      <c r="F39" s="4" t="n">
         <v>1286</v>
-      </c>
-      <c r="F39" s="4" t="n">
-        <v>3101</v>
       </c>
       <c r="G39" s="4" t="n">
         <v>3101</v>
       </c>
       <c r="H39" s="4" t="n">
+        <v>3101</v>
+      </c>
+      <c r="I39" s="4" t="n">
         <v>788.0710075633194</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="40" spans="1:8">
+    <row customHeight="1" ht="20" r="40" spans="1:9">
       <c r="A40" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D40" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C40" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E40" s="4" t="n">
         <v>528</v>
       </c>
-      <c r="E40" s="4" t="n">
+      <c r="F40" s="4" t="n">
         <v>6952</v>
       </c>
-      <c r="F40" s="4" t="n">
+      <c r="G40" s="4" t="n">
         <v>118920</v>
       </c>
-      <c r="G40" s="4" t="n">
+      <c r="H40" s="4" t="n">
         <v>764167</v>
       </c>
-      <c r="H40" s="4" t="n">
+      <c r="I40" s="4" t="n">
         <v>165713.1826663762</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="41" spans="1:8">
+    <row customHeight="1" ht="20" r="41" spans="1:9">
       <c r="A41" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D41" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C41" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41" s="4" t="n">
         <v>405</v>
       </c>
-      <c r="E41" s="4" t="n">
+      <c r="F41" s="4" t="n">
         <v>95982</v>
       </c>
-      <c r="F41" s="4" t="n">
+      <c r="G41" s="4" t="n">
         <v>96377</v>
       </c>
-      <c r="G41" s="4" t="n">
+      <c r="H41" s="4" t="n">
         <v>399675</v>
       </c>
-      <c r="H41" s="4" t="n">
+      <c r="I41" s="4" t="n">
         <v>3673.17441941854</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="42" spans="1:8">
+    <row customHeight="1" ht="20" r="42" spans="1:9">
       <c r="A42" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D42" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C42" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E42" s="4" t="n">
         <v>36</v>
-      </c>
-      <c r="E42" s="4" t="n">
-        <v>0</v>
       </c>
       <c r="F42" s="4" t="n">
         <v>0</v>
       </c>
       <c r="G42" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" s="4" t="n">
         <v>96</v>
       </c>
-      <c r="H42" s="4" t="n">
+      <c r="I42" s="4" t="n">
         <v>2.840402329033715</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="43" spans="1:8">
+    <row customHeight="1" ht="20" r="43" spans="1:9">
       <c r="A43" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D43" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="C43" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F43" s="4" t="n">
         <v>7</v>
@@ -1939,206 +2063,230 @@
         <v>7</v>
       </c>
       <c r="H43" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="I43" s="4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="44" spans="1:8">
+    <row customHeight="1" ht="20" r="44" spans="1:9">
       <c r="A44" s="3" t="s">
         <v>90</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C44" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E44" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="E44" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="F44" s="4" t="n">
         <v>1</v>
       </c>
       <c r="G44" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="H44" s="4" t="n">
+      <c r="I44" s="4" t="n">
         <v>0.1177091119644245</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="45" spans="1:8">
+    <row customHeight="1" ht="20" r="45" spans="1:9">
       <c r="A45" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D45" s="4" t="n">
+      <c r="E45" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="E45" s="4" t="n">
+      <c r="F45" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="F45" s="4" t="n">
+      <c r="G45" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="G45" s="4" t="n">
+      <c r="H45" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="H45" s="4" t="n">
+      <c r="I45" s="4" t="n">
         <v>0.3840218134879771</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="46" spans="1:8">
+    <row customHeight="1" ht="20" r="46" spans="1:9">
       <c r="A46" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E46" s="4" t="n">
+        <v>146</v>
+      </c>
+      <c r="F46" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" s="4" t="n">
+        <v>997</v>
+      </c>
+      <c r="I46" s="4" t="n">
+        <v>2.447895336451035</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="47" spans="1:9">
+      <c r="A47" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D46" s="4" t="n">
-        <v>146</v>
-      </c>
-      <c r="E46" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F46" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G46" s="4" t="n">
-        <v>997</v>
-      </c>
-      <c r="H46" s="4" t="n">
-        <v>2.447895336451035</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="47" spans="1:8">
-      <c r="A47" s="3" t="s">
+      <c r="B47" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" s="4" t="s">
+      <c r="E47" s="4" t="n">
+        <v>1636</v>
+      </c>
+      <c r="F47" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G47" s="4" t="n">
+        <v>270</v>
+      </c>
+      <c r="H47" s="4" t="n">
+        <v>7983</v>
+      </c>
+      <c r="I47" s="4" t="n">
+        <v>233.0848636100392</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="48" spans="1:9">
+      <c r="A48" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D47" s="4" t="n">
-        <v>1636</v>
-      </c>
-      <c r="E47" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="F47" s="4" t="n">
-        <v>270</v>
-      </c>
-      <c r="G47" s="4" t="n">
-        <v>7983</v>
-      </c>
-      <c r="H47" s="4" t="n">
-        <v>233.0848636100392</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="48" spans="1:8">
-      <c r="A48" s="3" t="s">
+      <c r="B48" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" s="4" t="s">
+      <c r="E48" s="4" t="n">
+        <v>594</v>
+      </c>
+      <c r="F48" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G48" s="4" t="n">
+        <v>168</v>
+      </c>
+      <c r="H48" s="4" t="n">
+        <v>6141</v>
+      </c>
+      <c r="I48" s="4" t="n">
+        <v>369.6616614365719</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="49" spans="1:9">
+      <c r="A49" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D48" s="4" t="n">
-        <v>594</v>
-      </c>
-      <c r="E48" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="F48" s="4" t="n">
+      <c r="B49" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E49" s="4" t="n">
         <v>168</v>
       </c>
-      <c r="G48" s="4" t="n">
-        <v>6141</v>
-      </c>
-      <c r="H48" s="4" t="n">
-        <v>369.6616614365719</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="49" spans="1:8">
-      <c r="A49" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" s="4" t="s">
+      <c r="F49" s="4" t="n">
+        <v>1801</v>
+      </c>
+      <c r="G49" s="4" t="n">
+        <v>1963</v>
+      </c>
+      <c r="H49" s="4" t="n">
+        <v>2015</v>
+      </c>
+      <c r="I49" s="4" t="n">
+        <v>23.4413153419186</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="50" spans="1:9">
+      <c r="A50" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D49" s="4" t="n">
-        <v>168</v>
-      </c>
-      <c r="E49" s="4" t="n">
-        <v>1801</v>
-      </c>
-      <c r="F49" s="4" t="n">
-        <v>1963</v>
-      </c>
-      <c r="G49" s="4" t="n">
-        <v>2015</v>
-      </c>
-      <c r="H49" s="4" t="n">
-        <v>23.4413153419186</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="50" spans="1:8">
-      <c r="A50" s="3" t="s">
+      <c r="B50" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" s="4" t="s">
+      <c r="E50" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="F50" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" s="4" t="n">
+        <v>41</v>
+      </c>
+      <c r="I50" s="4" t="n">
+        <v>0.5390753555967679</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="51" spans="1:9">
+      <c r="A51" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D50" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="E50" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F50" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G50" s="4" t="n">
-        <v>41</v>
-      </c>
-      <c r="H50" s="4" t="n">
-        <v>0.5390753555967679</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="51" spans="1:8">
-      <c r="A51" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="B51" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C51" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D51" s="4" t="n">
-        <v>1</v>
+      <c r="C51" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F51" s="4" t="n">
         <v/>
@@ -2149,152 +2297,170 @@
       <c r="H51" s="4" t="n">
         <v/>
       </c>
-    </row>
-    <row customHeight="1" ht="20" r="52" spans="1:8">
+      <c r="I51" s="4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="52" spans="1:9">
       <c r="A52" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52" s="4" t="s">
+      <c r="E52" s="4" t="n">
+        <v>426150</v>
+      </c>
+      <c r="F52" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" s="4" t="n">
+        <v>122590</v>
+      </c>
+      <c r="H52" s="4" t="n">
+        <v>251486000</v>
+      </c>
+      <c r="I52" s="4" t="n">
+        <v>402068.2734081579</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="53" spans="1:9">
+      <c r="A53" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D52" s="4" t="n">
-        <v>426150</v>
-      </c>
-      <c r="E52" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F52" s="4" t="n">
-        <v>122590</v>
-      </c>
-      <c r="G52" s="4" t="n">
-        <v>251486000</v>
-      </c>
-      <c r="H52" s="4" t="n">
-        <v>402068.2734081579</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="53" spans="1:8">
-      <c r="A53" s="3" t="s">
+      <c r="B53" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" s="4" t="s">
+      <c r="E53" s="4" t="n">
+        <v>638920</v>
+      </c>
+      <c r="F53" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" s="4" t="n">
+        <v>306086</v>
+      </c>
+      <c r="H53" s="4" t="n">
+        <v>282786000</v>
+      </c>
+      <c r="I53" s="4" t="n">
+        <v>726346.5283829581</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="54" spans="1:9">
+      <c r="A54" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D53" s="4" t="n">
-        <v>638920</v>
-      </c>
-      <c r="E53" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F53" s="4" t="n">
-        <v>306086</v>
-      </c>
-      <c r="G53" s="4" t="n">
-        <v>282786000</v>
-      </c>
-      <c r="H53" s="4" t="n">
-        <v>726346.5283829581</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="54" spans="1:8">
-      <c r="A54" s="3" t="s">
+      <c r="B54" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54" s="4" t="s">
+      <c r="E54" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="F54" s="4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G54" s="4" t="n">
+        <v>2015</v>
+      </c>
+      <c r="H54" s="4" t="n">
+        <v>2016</v>
+      </c>
+      <c r="I54" s="4" t="n">
+        <v>0.03683160478489733</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="55" spans="1:9">
+      <c r="A55" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D54" s="4" t="n">
-        <v>14</v>
-      </c>
-      <c r="E54" s="4" t="n">
-        <v>2000</v>
-      </c>
-      <c r="F54" s="4" t="n">
-        <v>2015</v>
-      </c>
-      <c r="G54" s="4" t="n">
-        <v>2016</v>
-      </c>
-      <c r="H54" s="4" t="n">
-        <v>0.03683160478489733</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="55" spans="1:8">
-      <c r="A55" s="3" t="s">
+      <c r="B55" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" s="4" t="s">
+      <c r="E55" s="4" t="n">
+        <v>531408</v>
+      </c>
+      <c r="F55" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" s="4" t="n">
+        <v>167042</v>
+      </c>
+      <c r="H55" s="4" t="n">
+        <v>90246219</v>
+      </c>
+      <c r="I55" s="4" t="n">
+        <v>445013.0933512068</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="56" spans="1:9">
+      <c r="A56" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D55" s="4" t="n">
-        <v>531408</v>
-      </c>
-      <c r="E55" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F55" s="4" t="n">
-        <v>167042</v>
-      </c>
-      <c r="G55" s="4" t="n">
-        <v>90246219</v>
-      </c>
-      <c r="H55" s="4" t="n">
-        <v>445013.0933512068</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="56" spans="1:8">
-      <c r="A56" s="3" t="s">
+      <c r="B56" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56" s="4" t="s">
+      <c r="E56" s="4" t="n">
+        <v>1045757</v>
+      </c>
+      <c r="F56" s="4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G56" s="4" t="n">
+        <v>3991.78</v>
+      </c>
+      <c r="H56" s="4" t="n">
+        <v>3458861.12</v>
+      </c>
+      <c r="I56" s="4" t="n">
+        <v>9183.10557362546</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="57" spans="1:9">
+      <c r="A57" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D56" s="4" t="n">
-        <v>1045757</v>
-      </c>
-      <c r="E56" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="F56" s="4" t="n">
-        <v>3991.78</v>
-      </c>
-      <c r="G56" s="4" t="n">
-        <v>3458861.12</v>
-      </c>
-      <c r="H56" s="4" t="n">
-        <v>9183.10557362546</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="57" spans="1:8">
-      <c r="A57" s="3" t="s">
+      <c r="B57" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D57" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="E57" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F57" s="4" t="n">
         <v/>
@@ -2305,56 +2471,65 @@
       <c r="H57" s="4" t="n">
         <v/>
       </c>
-    </row>
-    <row customHeight="1" ht="20" r="58" spans="1:8">
+      <c r="I57" s="4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="58" spans="1:9">
       <c r="A58" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C58" s="4" t="s">
+      <c r="E58" s="4" t="n">
+        <v>32</v>
+      </c>
+      <c r="F58" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="H58" s="4" t="n">
+        <v>99</v>
+      </c>
+      <c r="I58" s="4" t="n">
+        <v>2.580982867075986</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="59" spans="1:9">
+      <c r="A59" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D58" s="4" t="n">
-        <v>32</v>
-      </c>
-      <c r="E58" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" s="4" t="n">
-        <v>14</v>
-      </c>
-      <c r="G58" s="4" t="n">
-        <v>99</v>
-      </c>
-      <c r="H58" s="4" t="n">
-        <v>2.580982867075986</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="59" spans="1:8">
-      <c r="A59" s="3" t="s">
+      <c r="B59" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D59" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D59" s="4" t="n">
+      <c r="E59" s="4" t="n">
         <v>96771</v>
       </c>
-      <c r="E59" s="4" t="n">
+      <c r="F59" s="4" t="n">
         <v>-1</v>
       </c>
-      <c r="F59" s="4" t="n">
+      <c r="G59" s="4" t="n">
         <v>60375715022011</v>
       </c>
-      <c r="G59" s="4" t="n">
+      <c r="H59" s="4" t="n">
         <v>483030105084015</v>
       </c>
-      <c r="H59" s="4" t="n">
+      <c r="I59" s="4" t="n">
         <v>324903398913.8006</v>
       </c>
     </row>
@@ -2376,17 +2551,25 @@
       <formula>B2="date"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D59">
+  <conditionalFormatting sqref="C2:C59">
     <cfRule dxfId="0" priority="6" stopIfTrue="1" type="expression">
-      <formula>D2=0</formula>
-    </cfRule>
-    <cfRule dxfId="0" priority="7" stopIfTrue="1" type="expression">
-      <formula>D2=1</formula>
+      <formula>C2=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <conditionalFormatting sqref="E2:E59">
+    <cfRule dxfId="0" priority="7" stopIfTrue="1" type="expression">
+      <formula>E2=0</formula>
+    </cfRule>
+    <cfRule dxfId="0" priority="8" stopIfTrue="1" type="expression">
+      <formula>E2=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
     <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="B2 B3 B4 B5 B6 B7 B8 B9 B10 B11 B12 B13 B14 B15 B16 B17 B18 B19 B20 B21 B22 B23 B24 B25 B26 B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B49 B50 B51 B52 B53 B54 B55 B56 B57 B58 B59" type="list">
       <formula1>"key,numeric,str,date"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="C2 C3 C4 C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C22 C23 C24 C25 C26 C27 C28 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C50 C51 C52 C53 C54 C55 C56 C57 C58 C59" type="list">
+      <formula1>"0,1"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/test/output/data_schema_properties_2016.xlsx
+++ b/test/output/data_schema_properties_2016.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="122">
   <si>
     <t>column</t>
   </si>
@@ -32,6 +32,9 @@
     <t>sample_num_uni</t>
   </si>
   <si>
+    <t>sample_uni_percentage</t>
+  </si>
+  <si>
     <t>sample_min</t>
   </si>
   <si>
@@ -50,243 +53,246 @@
     <t>numeric</t>
   </si>
   <si>
-    <t>[14232612, 14112525, 17231434, 11329694, 11436067]</t>
+    <t>[11238357, 12727866, 12914860, 12397429, 12616423]</t>
   </si>
   <si>
     <t>airconditioningtypeid</t>
   </si>
   <si>
-    <t>[13.0, 1.0, 1.0, 1.0, 1.0]</t>
+    <t>[1.0, 1.0, 1.0, 1.0, 1.0]</t>
   </si>
   <si>
     <t>architecturalstyletypeid</t>
   </si>
   <si>
+    <t>[7.0, 7.0, 7.0, 7.0, 8.0]</t>
+  </si>
+  <si>
+    <t>basementsqft</t>
+  </si>
+  <si>
+    <t>[676.0, 130.0, 264.0, 1056.0, 120.0]</t>
+  </si>
+  <si>
+    <t>bathroomcnt</t>
+  </si>
+  <si>
+    <t>[2.0, 1.0, 2.0, 2.0, 4.0]</t>
+  </si>
+  <si>
+    <t>bedroomcnt</t>
+  </si>
+  <si>
+    <t>[0.0, 3.0, 3.0, 4.0, 2.0]</t>
+  </si>
+  <si>
+    <t>buildingclasstypeid</t>
+  </si>
+  <si>
+    <t>[4.0, 4.0, 4.0, 3.0, 4.0]</t>
+  </si>
+  <si>
+    <t>buildingqualitytypeid</t>
+  </si>
+  <si>
+    <t>[4.0, 4.0, 7.0, 4.0, 7.0]</t>
+  </si>
+  <si>
+    <t>calculatedbathnbr</t>
+  </si>
+  <si>
+    <t>[2.0, 5.0, 1.0, 2.0, 3.0]</t>
+  </si>
+  <si>
+    <t>decktypeid</t>
+  </si>
+  <si>
+    <t>[66.0, 66.0, 66.0, 66.0, 66.0]</t>
+  </si>
+  <si>
+    <t>finishedfloor1squarefeet</t>
+  </si>
+  <si>
+    <t>[840.0, 1224.0, 1453.0, 725.0, 3730.0]</t>
+  </si>
+  <si>
+    <t>calculatedfinishedsquarefeet</t>
+  </si>
+  <si>
+    <t>[1650.0, 2508.0, 1269.0, 2398.0, 1721.0]</t>
+  </si>
+  <si>
+    <t>finishedsquarefeet12</t>
+  </si>
+  <si>
+    <t>[1768.0, 1606.0, 1606.0, 1870.0, 1428.0]</t>
+  </si>
+  <si>
+    <t>finishedsquarefeet13</t>
+  </si>
+  <si>
+    <t>[1440.0, 832.0, 840.0, 684.0, 1440.0]</t>
+  </si>
+  <si>
+    <t>finishedsquarefeet15</t>
+  </si>
+  <si>
+    <t>[2572.0, 1484.0, 2157.0, 1628.0, 2838.0]</t>
+  </si>
+  <si>
+    <t>finishedsquarefeet50</t>
+  </si>
+  <si>
+    <t>[873.0, 1033.0, 2348.0, 1120.0, 1596.0]</t>
+  </si>
+  <si>
+    <t>finishedsquarefeet6</t>
+  </si>
+  <si>
+    <t>[4520.0, 6641.0, 570.0, 845.0, 4802.0]</t>
+  </si>
+  <si>
+    <t>fips</t>
+  </si>
+  <si>
+    <t>[6037.0, 6037.0, 6037.0, 6059.0, 6037.0]</t>
+  </si>
+  <si>
+    <t>fireplacecnt</t>
+  </si>
+  <si>
+    <t>[2.0, 1.0, 2.0, 1.0, 1.0]</t>
+  </si>
+  <si>
+    <t>fullbathcnt</t>
+  </si>
+  <si>
+    <t>[2.0, 2.0, 2.0, 3.0, 1.0]</t>
+  </si>
+  <si>
+    <t>garagecarcnt</t>
+  </si>
+  <si>
+    <t>[2.0, 4.0, 2.0, 2.0, 2.0]</t>
+  </si>
+  <si>
+    <t>garagetotalsqft</t>
+  </si>
+  <si>
+    <t>[0.0, 351.0, 704.0, 360.0, 592.0]</t>
+  </si>
+  <si>
+    <t>hashottuborspa</t>
+  </si>
+  <si>
+    <t>str</t>
+  </si>
+  <si>
+    <t>[True, True, True, True, True]</t>
+  </si>
+  <si>
+    <t>heatingorsystemtypeid</t>
+  </si>
+  <si>
+    <t>[2.0, 7.0, 7.0, 2.0, 7.0]</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>[34440056.0, 33650044.0, 34144112.0, 34185000.0, 33829205.0]</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>[-117892000.0, -118053792.0, -117908466.0, -118292927.0, -119187780.0]</t>
+  </si>
+  <si>
+    <t>lotsizesquarefeet</t>
+  </si>
+  <si>
+    <t>[6400.0, 6066.0, 5916.0, 6805.0, 4563.0]</t>
+  </si>
+  <si>
+    <t>poolcnt</t>
+  </si>
+  <si>
+    <t>poolsizesum</t>
+  </si>
+  <si>
+    <t>[364.0, 287.0, 600.0, 360.0, 198.0]</t>
+  </si>
+  <si>
+    <t>pooltypeid10</t>
+  </si>
+  <si>
+    <t>pooltypeid2</t>
+  </si>
+  <si>
+    <t>pooltypeid7</t>
+  </si>
+  <si>
+    <t>propertycountylandusecode</t>
+  </si>
+  <si>
+    <t>['0100', '0100', '0101', '0100', '0100']</t>
+  </si>
+  <si>
+    <t>propertylandusetypeid</t>
+  </si>
+  <si>
+    <t>[261.0, 246.0, 261.0, 261.0, 261.0]</t>
+  </si>
+  <si>
+    <t>propertyzoningdesc</t>
+  </si>
+  <si>
+    <t>['LCA16000*', 'CARS*', 'LBR1N', 'PSR1', 'LARD3']</t>
+  </si>
+  <si>
+    <t>rawcensustractandblock</t>
+  </si>
+  <si>
+    <t>[60590992.452003, 60374084.01201, 60590525.23300699, 60372321.101002, 60590637.024002]</t>
+  </si>
+  <si>
+    <t>regionidcity</t>
+  </si>
+  <si>
+    <t>[25458.0, 34278.0, 12447.0, 4406.0, 17597.0]</t>
+  </si>
+  <si>
+    <t>regionidcounty</t>
+  </si>
+  <si>
+    <t>[3101.0, 3101.0, 3101.0, 1286.0, 3101.0]</t>
+  </si>
+  <si>
+    <t>regionidneighborhood</t>
+  </si>
+  <si>
+    <t>[274828.0, 268097.0, 32059.0, 275428.0, 40548.0]</t>
+  </si>
+  <si>
+    <t>regionidzip</t>
+  </si>
+  <si>
+    <t>[96967.0, 96240.0, 95984.0, 96193.0, 96497.0]</t>
+  </si>
+  <si>
+    <t>roomcnt</t>
+  </si>
+  <si>
+    <t>[0.0, 0.0, 0.0, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t>storytypeid</t>
+  </si>
+  <si>
     <t>[7.0, 7.0, 7.0, 7.0, 7.0]</t>
   </si>
   <si>
-    <t>basementsqft</t>
-  </si>
-  <si>
-    <t>[1292.0, 1041.0, 1030.0, 942.0, 144.0]</t>
-  </si>
-  <si>
-    <t>bathroomcnt</t>
-  </si>
-  <si>
-    <t>[2.5, 2.0, 2.5, 1.0, 0.0]</t>
-  </si>
-  <si>
-    <t>bedroomcnt</t>
-  </si>
-  <si>
-    <t>[2.0, 3.0, 2.0, 4.0, 4.0]</t>
-  </si>
-  <si>
-    <t>buildingclasstypeid</t>
-  </si>
-  <si>
-    <t>[4.0, 4.0, 4.0, 3.0, 4.0]</t>
-  </si>
-  <si>
-    <t>buildingqualitytypeid</t>
-  </si>
-  <si>
-    <t>[7.0, 7.0, 4.0, 7.0, 4.0]</t>
-  </si>
-  <si>
-    <t>calculatedbathnbr</t>
-  </si>
-  <si>
-    <t>[1.0, 2.0, 2.0, 2.0, 3.0]</t>
-  </si>
-  <si>
-    <t>decktypeid</t>
-  </si>
-  <si>
-    <t>[66.0, 66.0, 66.0, 66.0, 66.0]</t>
-  </si>
-  <si>
-    <t>finishedfloor1squarefeet</t>
-  </si>
-  <si>
-    <t>[2084.0, 1252.0, 1957.0, 1498.0, 1167.0]</t>
-  </si>
-  <si>
-    <t>calculatedfinishedsquarefeet</t>
-  </si>
-  <si>
-    <t>[1095.0, 1174.0, 2167.0, 1461.0, 1132.0]</t>
-  </si>
-  <si>
-    <t>finishedsquarefeet12</t>
-  </si>
-  <si>
-    <t>[2097.0, 672.0, 3360.0, 2477.0, 916.0]</t>
-  </si>
-  <si>
-    <t>finishedsquarefeet13</t>
-  </si>
-  <si>
-    <t>[768.0, 1368.0, 1440.0, 1120.0, 720.0]</t>
-  </si>
-  <si>
-    <t>finishedsquarefeet15</t>
-  </si>
-  <si>
-    <t>[1890.0, 1150.0, 1318.0, 3975.0, 2131.0]</t>
-  </si>
-  <si>
-    <t>finishedsquarefeet50</t>
-  </si>
-  <si>
-    <t>[1291.0, 2848.0, 3114.0, 1328.0, 1574.0]</t>
-  </si>
-  <si>
-    <t>finishedsquarefeet6</t>
-  </si>
-  <si>
-    <t>[1922.0, 3760.0, 3680.0, 1794.0, 720.0]</t>
-  </si>
-  <si>
-    <t>fips</t>
-  </si>
-  <si>
-    <t>[6037.0, 6037.0, 6037.0, 6059.0, 6059.0]</t>
-  </si>
-  <si>
-    <t>fireplacecnt</t>
-  </si>
-  <si>
-    <t>[1.0, 1.0, 1.0, 1.0, 1.0]</t>
-  </si>
-  <si>
-    <t>fullbathcnt</t>
-  </si>
-  <si>
-    <t>[3.0, 3.0, 2.0, 2.0, 1.0]</t>
-  </si>
-  <si>
-    <t>garagecarcnt</t>
-  </si>
-  <si>
-    <t>[1.0, 2.0, 2.0, 2.0, 2.0]</t>
-  </si>
-  <si>
-    <t>garagetotalsqft</t>
-  </si>
-  <si>
-    <t>[462.0, 557.0, 480.0, 360.0, 460.0]</t>
-  </si>
-  <si>
-    <t>hashottuborspa</t>
-  </si>
-  <si>
-    <t>str</t>
-  </si>
-  <si>
-    <t>[True, True, True, True, True]</t>
-  </si>
-  <si>
-    <t>heatingorsystemtypeid</t>
-  </si>
-  <si>
-    <t>[2.0, 2.0, 2.0, 2.0, 2.0]</t>
-  </si>
-  <si>
-    <t>latitude</t>
-  </si>
-  <si>
-    <t>[33832989.0, 33851950.0, 33934683.0, 33716294.0, 33827651.0]</t>
-  </si>
-  <si>
-    <t>longitude</t>
-  </si>
-  <si>
-    <t>[-118503506.0, -118186109.0, -118102599.0, -118567903.0, -117700457.0]</t>
-  </si>
-  <si>
-    <t>lotsizesquarefeet</t>
-  </si>
-  <si>
-    <t>[6515.0, 9297.0, 24349.0, 58370.0, 3519.0]</t>
-  </si>
-  <si>
-    <t>poolcnt</t>
-  </si>
-  <si>
-    <t>poolsizesum</t>
-  </si>
-  <si>
-    <t>[945.0, 450.0, 900.0, 432.0, 448.0]</t>
-  </si>
-  <si>
-    <t>pooltypeid10</t>
-  </si>
-  <si>
-    <t>pooltypeid2</t>
-  </si>
-  <si>
-    <t>pooltypeid7</t>
-  </si>
-  <si>
-    <t>propertycountylandusecode</t>
-  </si>
-  <si>
-    <t>['0101', '010D', '122', '010D', '0100']</t>
-  </si>
-  <si>
-    <t>propertylandusetypeid</t>
-  </si>
-  <si>
-    <t>[261.0, 261.0, 247.0, 261.0, 261.0]</t>
-  </si>
-  <si>
-    <t>propertyzoningdesc</t>
-  </si>
-  <si>
-    <t>['PDA21*', 'LCM1*', 'LCRA06', 'LCRA1OOOO-', 'CVR181/2']</t>
-  </si>
-  <si>
-    <t>rawcensustractandblock</t>
-  </si>
-  <si>
-    <t>[60591106.053012, 60590626.042029, 60590635.001, 60375408.003006004, 60372623.011002004]</t>
-  </si>
-  <si>
-    <t>regionidcity</t>
-  </si>
-  <si>
-    <t>[53571.0, 46298.0, 12447.0, 52842.0, 13150.0]</t>
-  </si>
-  <si>
-    <t>regionidcounty</t>
-  </si>
-  <si>
-    <t>[3101.0, 3101.0, 1286.0, 1286.0, 3101.0]</t>
-  </si>
-  <si>
-    <t>regionidneighborhood</t>
-  </si>
-  <si>
-    <t>[274765.0, 47880.0, 268588.0, 33183.0, 113886.0]</t>
-  </si>
-  <si>
-    <t>regionidzip</t>
-  </si>
-  <si>
-    <t>[96336.0, 96533.0, 97116.0, 96971.0, 96971.0]</t>
-  </si>
-  <si>
-    <t>roomcnt</t>
-  </si>
-  <si>
-    <t>[8.0, 0.0, 8.0, 0.0, 0.0]</t>
-  </si>
-  <si>
-    <t>storytypeid</t>
-  </si>
-  <si>
     <t>threequarterbathnbr</t>
   </si>
   <si>
@@ -299,28 +305,31 @@
     <t>unitcnt</t>
   </si>
   <si>
+    <t>[1.0, 1.0, 2.0, 1.0, 1.0]</t>
+  </si>
+  <si>
     <t>yardbuildingsqft17</t>
   </si>
   <si>
-    <t>[406.0, 240.0, 216.0, 598.0, 168.0]</t>
+    <t>[256.0, 120.0, 288.0, 220.0, 44.0]</t>
   </si>
   <si>
     <t>yardbuildingsqft26</t>
   </si>
   <si>
-    <t>[120.0, 348.0, 84.0, 37.0, 84.0]</t>
+    <t>[100.0, 897.0, 192.0, 71.0, 379.0]</t>
   </si>
   <si>
     <t>yearbuilt</t>
   </si>
   <si>
-    <t>[1955.0, 1976.0, 1976.0, 1983.0, 1990.0]</t>
+    <t>[1951.0, 2004.0, 1969.0, 1959.0, 1964.0]</t>
   </si>
   <si>
     <t>numberofstories</t>
   </si>
   <si>
-    <t>[2.0, 1.0, 1.0, 3.0, 1.0]</t>
+    <t>[1.0, 2.0, 1.0, 1.0, 1.0]</t>
   </si>
   <si>
     <t>fireplaceflag</t>
@@ -329,13 +338,13 @@
     <t>structuretaxvaluedollarcnt</t>
   </si>
   <si>
-    <t>[23268.0, 256940.0, 309143.0, 1846700.0, 94821.0]</t>
+    <t>[214000.0, 100239.0, 94972.0, 231218.0, 199121.0]</t>
   </si>
   <si>
     <t>taxvaluedollarcnt</t>
   </si>
   <si>
-    <t>[408128.0, 126718.0, 319050.0, 410000.0, 97369.0]</t>
+    <t>[234781.0, 453890.0, 251775.0, 1313566.0, 437707.0]</t>
   </si>
   <si>
     <t>assessmentyear</t>
@@ -347,13 +356,13 @@
     <t>landtaxvaluedollarcnt</t>
   </si>
   <si>
-    <t>[135967.0, 186726.0, 130100.0, 14448.0, 120020.0]</t>
+    <t>[134021.0, 582296.0, 276445.0, 29352.0, 119169.0]</t>
   </si>
   <si>
     <t>taxamount</t>
   </si>
   <si>
-    <t>[1468.34, 4219.4, 9611.74, 10694.98, 2252.83]</t>
+    <t>[2585.6, 6498.7, 2416.7, 4801.86, 5018.02]</t>
   </si>
   <si>
     <t>taxdelinquencyflag</t>
@@ -365,13 +374,13 @@
     <t>taxdelinquencyyear</t>
   </si>
   <si>
-    <t>[14.0, 15.0, 11.0, 14.0, 15.0]</t>
+    <t>[15.0, 10.0, 15.0, 15.0, 13.0]</t>
   </si>
   <si>
     <t>censustractandblock</t>
   </si>
   <si>
-    <t>[60372753022000.0, 60590754044002.0, 60590881071001.0, 60376210021002.0, 60371397024003.0]</t>
+    <t>[60374038022006.0, 60375335012001.0, 60590012021008.0, 60379203281001.0, 60372323002006.0]</t>
   </si>
 </sst>
 </file>
@@ -802,7 +811,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -813,16 +822,17 @@
     <col customWidth="1" max="1" min="1" width="42"/>
     <col customWidth="1" max="2" min="2" width="15"/>
     <col customWidth="1" max="3" min="3" width="15"/>
-    <col customWidth="1" max="4" min="4" width="100"/>
+    <col customWidth="1" max="4" min="4" width="80"/>
     <col customWidth="1" max="5" min="5" width="21"/>
-    <col customWidth="1" max="6" min="6" width="18"/>
-    <col customWidth="1" max="7" min="7" width="24"/>
-    <col customWidth="1" max="8" min="8" width="25.5"/>
+    <col customWidth="1" max="6" min="6" width="31.5"/>
+    <col customWidth="1" max="7" min="7" width="18"/>
+    <col customWidth="1" max="8" min="8" width="24"/>
     <col customWidth="1" max="9" min="9" width="25.5"/>
+    <col customWidth="1" max="10" min="10" width="25.5"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="20" r="0" spans="1:9"/>
-    <row customHeight="1" ht="20" r="1" spans="1:9">
+    <row customHeight="1" ht="20" r="0" spans="1:10"/>
+    <row customHeight="1" ht="20" r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -850,286 +860,316 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row customHeight="1" ht="20" r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="2" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>2985217</v>
       </c>
       <c r="F2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="n">
         <v>10711725</v>
       </c>
-      <c r="G2" s="4" t="n">
+      <c r="H2" s="4" t="n">
         <v>12545094</v>
       </c>
-      <c r="H2" s="4" t="n">
+      <c r="I2" s="4" t="n">
         <v>169601949</v>
       </c>
-      <c r="I2" s="4" t="n">
+      <c r="J2" s="4" t="n">
         <v>7909965.06437721</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="3" spans="1:9">
+    <row customHeight="1" ht="20" r="3" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="4" t="n">
         <v>7</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1</v>
+        <v>1e-05</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="I3" s="4" t="n">
+      <c r="J3" s="4" t="n">
         <v>3.148585454642171</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="4" spans="1:9">
+    <row customHeight="1" ht="20" r="4" spans="1:10">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" s="4" t="n">
         <v>8</v>
       </c>
       <c r="F4" s="4" t="n">
+        <v>0.00132</v>
+      </c>
+      <c r="G4" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="G4" s="4" t="n">
+      <c r="H4" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="H4" s="4" t="n">
+      <c r="I4" s="4" t="n">
         <v>27</v>
       </c>
-      <c r="I4" s="4" t="n">
+      <c r="J4" s="4" t="n">
         <v>2.436089501518546</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="5" spans="1:9">
+    <row customHeight="1" ht="20" r="5" spans="1:10">
       <c r="A5" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>751</v>
       </c>
       <c r="F5" s="4" t="n">
+        <v>0.4613</v>
+      </c>
+      <c r="G5" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="G5" s="4" t="n">
+      <c r="H5" s="4" t="n">
         <v>534</v>
       </c>
-      <c r="H5" s="4" t="n">
+      <c r="I5" s="4" t="n">
         <v>8516</v>
       </c>
-      <c r="I5" s="4" t="n">
+      <c r="J5" s="4" t="n">
         <v>538.6279706828607</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="6" spans="1:9">
+    <row customHeight="1" ht="20" r="6" spans="1:10">
       <c r="A6" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6" s="4" t="n">
         <v>37</v>
       </c>
       <c r="F6" s="4" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="G6" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="G6" s="4" t="n">
+      <c r="H6" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H6" s="4" t="n">
+      <c r="I6" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="I6" s="4" t="n">
+      <c r="J6" s="4" t="n">
         <v>1.077753596014586</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="7" spans="1:9">
+    <row customHeight="1" ht="20" r="7" spans="1:10">
       <c r="A7" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7" s="4" t="n">
         <v>21</v>
       </c>
       <c r="F7" s="4" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="G7" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="G7" s="4" t="n">
+      <c r="H7" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="H7" s="4" t="n">
+      <c r="I7" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="I7" s="4" t="n">
+      <c r="J7" s="4" t="n">
         <v>1.275858581591177</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="8" spans="1:9">
+    <row customHeight="1" ht="20" r="8" spans="1:10">
       <c r="A8" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8" s="4" t="n">
         <v>5</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>1</v>
+        <v>0.0004</v>
       </c>
       <c r="G8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="H8" s="4" t="n">
+      <c r="I8" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="I8" s="4" t="n">
+      <c r="J8" s="4" t="n">
         <v>0.5016803477144972</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="9" spans="1:9">
+    <row customHeight="1" ht="20" r="9" spans="1:10">
       <c r="A9" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9" s="4" t="n">
         <v>12</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>1</v>
+        <v>1e-05</v>
       </c>
       <c r="G9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="H9" s="4" t="n">
+      <c r="I9" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="I9" s="4" t="n">
+      <c r="J9" s="4" t="n">
         <v>1.805351113900178</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="10" spans="1:9">
+    <row customHeight="1" ht="20" r="10" spans="1:10">
       <c r="A10" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E10" s="4" t="n">
         <v>34</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>1</v>
+        <v>1e-05</v>
       </c>
       <c r="G10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H10" s="4" t="n">
+      <c r="I10" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="I10" s="4" t="n">
+      <c r="J10" s="4" t="n">
         <v>1.000736064417979</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="11" spans="1:9">
+    <row customHeight="1" ht="20" r="11" spans="1:10">
       <c r="A11" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F11" s="4" t="n">
-        <v>66</v>
+        <v>6e-05</v>
       </c>
       <c r="G11" s="4" t="n">
         <v>66</v>
@@ -1138,375 +1178,414 @@
         <v>66</v>
       </c>
       <c r="I11" s="4" t="n">
+        <v>66</v>
+      </c>
+      <c r="J11" s="4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="12" spans="1:9">
+    <row customHeight="1" ht="20" r="12" spans="1:10">
       <c r="A12" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E12" s="4" t="n">
         <v>4604</v>
       </c>
       <c r="F12" s="4" t="n">
+        <v>0.02271</v>
+      </c>
+      <c r="G12" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="G12" s="4" t="n">
+      <c r="H12" s="4" t="n">
         <v>1283</v>
       </c>
-      <c r="H12" s="4" t="n">
+      <c r="I12" s="4" t="n">
         <v>31303</v>
       </c>
-      <c r="I12" s="4" t="n">
+      <c r="J12" s="4" t="n">
         <v>632.8669819186815</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="13" spans="1:9">
+    <row customHeight="1" ht="20" r="13" spans="1:10">
       <c r="A13" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E13" s="4" t="n">
         <v>12587</v>
       </c>
       <c r="F13" s="4" t="n">
-        <v>1</v>
+        <v>0.0043</v>
       </c>
       <c r="G13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4" t="n">
         <v>1572</v>
       </c>
-      <c r="H13" s="4" t="n">
+      <c r="I13" s="4" t="n">
         <v>952576</v>
       </c>
-      <c r="I13" s="4" t="n">
+      <c r="J13" s="4" t="n">
         <v>1819.780158720397</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="14" spans="1:9">
+    <row customHeight="1" ht="20" r="14" spans="1:10">
       <c r="A14" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C14" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E14" s="4" t="n">
         <v>10670</v>
       </c>
       <c r="F14" s="4" t="n">
-        <v>1</v>
+        <v>0.00394</v>
       </c>
       <c r="G14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4" t="n">
         <v>1539</v>
       </c>
-      <c r="H14" s="4" t="n">
+      <c r="I14" s="4" t="n">
         <v>290345</v>
       </c>
-      <c r="I14" s="4" t="n">
+      <c r="J14" s="4" t="n">
         <v>971.0608311620564</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="15" spans="1:9">
+    <row customHeight="1" ht="20" r="15" spans="1:10">
       <c r="A15" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C15" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E15" s="4" t="n">
         <v>250</v>
       </c>
       <c r="F15" s="4" t="n">
+        <v>0.03259</v>
+      </c>
+      <c r="G15" s="4" t="n">
         <v>120</v>
       </c>
-      <c r="G15" s="4" t="n">
+      <c r="H15" s="4" t="n">
         <v>1296</v>
       </c>
-      <c r="H15" s="4" t="n">
+      <c r="I15" s="4" t="n">
         <v>2688</v>
       </c>
-      <c r="I15" s="4" t="n">
+      <c r="J15" s="4" t="n">
         <v>357.0497635764946</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="16" spans="1:9">
+    <row customHeight="1" ht="20" r="16" spans="1:10">
       <c r="A16" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C16" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E16" s="4" t="n">
         <v>8816</v>
       </c>
       <c r="F16" s="4" t="n">
+        <v>0.04621</v>
+      </c>
+      <c r="G16" s="4" t="n">
         <v>112</v>
       </c>
-      <c r="G16" s="4" t="n">
+      <c r="H16" s="4" t="n">
         <v>2172</v>
       </c>
-      <c r="H16" s="4" t="n">
+      <c r="I16" s="4" t="n">
         <v>820242</v>
       </c>
-      <c r="I16" s="4" t="n">
+      <c r="J16" s="4" t="n">
         <v>5447.414051804521</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="17" spans="1:9">
+    <row customHeight="1" ht="20" r="17" spans="1:10">
       <c r="A17" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C17" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E17" s="4" t="n">
         <v>4802</v>
       </c>
       <c r="F17" s="4" t="n">
+        <v>0.02369</v>
+      </c>
+      <c r="G17" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="G17" s="4" t="n">
+      <c r="H17" s="4" t="n">
         <v>1284</v>
       </c>
-      <c r="H17" s="4" t="n">
+      <c r="I17" s="4" t="n">
         <v>31303</v>
       </c>
-      <c r="I17" s="4" t="n">
+      <c r="J17" s="4" t="n">
         <v>664.4870695844113</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="18" spans="1:9">
+    <row customHeight="1" ht="20" r="18" spans="1:10">
       <c r="A18" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C18" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E18" s="4" t="n">
         <v>4251</v>
       </c>
       <c r="F18" s="4" t="n">
+        <v>0.19322</v>
+      </c>
+      <c r="G18" s="4" t="n">
         <v>117</v>
       </c>
-      <c r="G18" s="4" t="n">
+      <c r="H18" s="4" t="n">
         <v>1992</v>
       </c>
-      <c r="H18" s="4" t="n">
+      <c r="I18" s="4" t="n">
         <v>952576</v>
       </c>
-      <c r="I18" s="4" t="n">
+      <c r="J18" s="4" t="n">
         <v>7695.128064476132</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="19" spans="1:9">
+    <row customHeight="1" ht="20" r="19" spans="1:10">
       <c r="A19" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C19" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E19" s="4" t="n">
         <v>3</v>
       </c>
       <c r="F19" s="4" t="n">
-        <v>6037</v>
+        <v>0</v>
       </c>
       <c r="G19" s="4" t="n">
         <v>6037</v>
       </c>
       <c r="H19" s="4" t="n">
+        <v>6037</v>
+      </c>
+      <c r="I19" s="4" t="n">
         <v>6111</v>
       </c>
-      <c r="I19" s="4" t="n">
+      <c r="J19" s="4" t="n">
         <v>20.23278129069728</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="20" spans="1:9">
+    <row customHeight="1" ht="20" r="20" spans="1:10">
       <c r="A20" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C20" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E20" s="4" t="n">
         <v>9</v>
       </c>
       <c r="F20" s="4" t="n">
-        <v>1</v>
+        <v>3e-05</v>
       </c>
       <c r="G20" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H20" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="I20" s="4" t="n">
+      <c r="J20" s="4" t="n">
         <v>0.4612721168654078</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="21" spans="1:9">
+    <row customHeight="1" ht="20" r="21" spans="1:10">
       <c r="A21" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C21" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E21" s="4" t="n">
         <v>20</v>
       </c>
       <c r="F21" s="4" t="n">
-        <v>1</v>
+        <v>1e-05</v>
       </c>
       <c r="G21" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H21" s="4" t="n">
+      <c r="I21" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="I21" s="4" t="n">
+      <c r="J21" s="4" t="n">
         <v>0.9912052261590295</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="22" spans="1:9">
+    <row customHeight="1" ht="20" r="22" spans="1:10">
       <c r="A22" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C22" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E22" s="4" t="n">
         <v>24</v>
       </c>
       <c r="F22" s="4" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="G22" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="G22" s="4" t="n">
+      <c r="H22" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H22" s="4" t="n">
+      <c r="I22" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="I22" s="4" t="n">
+      <c r="J22" s="4" t="n">
         <v>0.6100350379304633</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="23" spans="1:9">
+    <row customHeight="1" ht="20" r="23" spans="1:10">
       <c r="A23" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C23" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E23" s="4" t="n">
         <v>2240</v>
       </c>
       <c r="F23" s="4" t="n">
+        <v>0.00254</v>
+      </c>
+      <c r="G23" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="G23" s="4" t="n">
+      <c r="H23" s="4" t="n">
         <v>441</v>
       </c>
-      <c r="H23" s="4" t="n">
+      <c r="I23" s="4" t="n">
         <v>7749</v>
       </c>
-      <c r="I23" s="4" t="n">
+      <c r="J23" s="4" t="n">
         <v>245.4432800330768</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="24" spans="1:9">
+    <row customHeight="1" ht="20" r="24" spans="1:10">
       <c r="A24" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C24" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E24" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F24" s="4" t="n">
-        <v/>
+        <v>1e-05</v>
       </c>
       <c r="G24" s="4" t="n">
         <v/>
@@ -1517,141 +1596,156 @@
       <c r="I24" s="4" t="n">
         <v/>
       </c>
-    </row>
-    <row customHeight="1" ht="20" r="25" spans="1:9">
+      <c r="J24" s="4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="25" spans="1:10">
       <c r="A25" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C25" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25" s="4" t="n">
         <v>14</v>
       </c>
       <c r="F25" s="4" t="n">
-        <v>1</v>
+        <v>1e-05</v>
       </c>
       <c r="G25" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H25" s="4" t="n">
+      <c r="I25" s="4" t="n">
         <v>24</v>
       </c>
-      <c r="I25" s="4" t="n">
+      <c r="J25" s="4" t="n">
         <v>3.293731777030039</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="26" spans="1:9">
+    <row customHeight="1" ht="20" r="26" spans="1:10">
       <c r="A26" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C26" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E26" s="4" t="n">
         <v>852325</v>
       </c>
       <c r="F26" s="4" t="n">
+        <v>0.28661</v>
+      </c>
+      <c r="G26" s="4" t="n">
         <v>33324388</v>
       </c>
-      <c r="G26" s="4" t="n">
+      <c r="H26" s="4" t="n">
         <v>34008249</v>
       </c>
-      <c r="H26" s="4" t="n">
+      <c r="I26" s="4" t="n">
         <v>34819650</v>
       </c>
-      <c r="I26" s="4" t="n">
+      <c r="J26" s="4" t="n">
         <v>243381.137390034</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="27" spans="1:9">
+    <row customHeight="1" ht="20" r="27" spans="1:10">
       <c r="A27" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C27" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E27" s="4" t="n">
         <v>1042550</v>
       </c>
       <c r="F27" s="4" t="n">
+        <v>0.35058</v>
+      </c>
+      <c r="G27" s="4" t="n">
         <v>-119475780</v>
       </c>
-      <c r="G27" s="4" t="n">
+      <c r="H27" s="4" t="n">
         <v>-118172540.5</v>
       </c>
-      <c r="H27" s="4" t="n">
+      <c r="I27" s="4" t="n">
         <v>-117554316</v>
       </c>
-      <c r="I27" s="4" t="n">
+      <c r="J27" s="4" t="n">
         <v>345317.0432116458</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="28" spans="1:9">
+    <row customHeight="1" ht="20" r="28" spans="1:10">
       <c r="A28" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C28" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E28" s="4" t="n">
         <v>69953</v>
       </c>
       <c r="F28" s="4" t="n">
+        <v>0.02582</v>
+      </c>
+      <c r="G28" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="G28" s="4" t="n">
+      <c r="H28" s="4" t="n">
         <v>7000</v>
       </c>
-      <c r="H28" s="4" t="n">
+      <c r="I28" s="4" t="n">
         <v>328263808</v>
       </c>
-      <c r="I28" s="4" t="n">
+      <c r="J28" s="4" t="n">
         <v>337592.3041009583</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="29" spans="1:9">
+    <row customHeight="1" ht="20" r="29" spans="1:10">
       <c r="A29" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C29" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="E29" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F29" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" s="4" t="n">
         <v>1</v>
@@ -1660,56 +1754,62 @@
         <v>1</v>
       </c>
       <c r="I29" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" s="4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="30" spans="1:9">
+    <row customHeight="1" ht="20" r="30" spans="1:10">
       <c r="A30" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C30" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E30" s="4" t="n">
         <v>907</v>
       </c>
       <c r="F30" s="4" t="n">
+        <v>0.03244</v>
+      </c>
+      <c r="G30" s="4" t="n">
         <v>19</v>
       </c>
-      <c r="G30" s="4" t="n">
+      <c r="H30" s="4" t="n">
         <v>495</v>
       </c>
-      <c r="H30" s="4" t="n">
+      <c r="I30" s="4" t="n">
         <v>17410</v>
       </c>
-      <c r="I30" s="4" t="n">
+      <c r="J30" s="4" t="n">
         <v>191.3198624050437</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="31" spans="1:9">
+    <row customHeight="1" ht="20" r="31" spans="1:10">
       <c r="A31" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C31" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="E31" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F31" s="4" t="n">
-        <v>1</v>
+        <v>3e-05</v>
       </c>
       <c r="G31" s="4" t="n">
         <v>1</v>
@@ -1718,27 +1818,30 @@
         <v>1</v>
       </c>
       <c r="I31" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" s="4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="32" spans="1:9">
+    <row customHeight="1" ht="20" r="32" spans="1:10">
       <c r="A32" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C32" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="E32" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F32" s="4" t="n">
-        <v>1</v>
+        <v>3e-05</v>
       </c>
       <c r="G32" s="4" t="n">
         <v>1</v>
@@ -1747,27 +1850,30 @@
         <v>1</v>
       </c>
       <c r="I32" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" s="4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="33" spans="1:9">
+    <row customHeight="1" ht="20" r="33" spans="1:10">
       <c r="A33" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C33" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="E33" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F33" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" s="4" t="n">
         <v>1</v>
@@ -1776,27 +1882,30 @@
         <v>1</v>
       </c>
       <c r="I33" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" s="4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="34" spans="1:9">
+    <row customHeight="1" ht="20" r="34" spans="1:10">
       <c r="A34" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C34" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E34" s="4" t="n">
         <v>240</v>
       </c>
       <c r="F34" s="4" t="n">
-        <v/>
+        <v>8.000000000000001e-05</v>
       </c>
       <c r="G34" s="4" t="n">
         <v/>
@@ -1807,54 +1916,60 @@
       <c r="I34" s="4" t="n">
         <v/>
       </c>
-    </row>
-    <row customHeight="1" ht="20" r="35" spans="1:9">
+      <c r="J34" s="4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="35" spans="1:10">
       <c r="A35" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C35" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E35" s="4" t="n">
         <v>15</v>
       </c>
       <c r="F35" s="4" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="G35" s="4" t="n">
         <v>31</v>
       </c>
-      <c r="G35" s="4" t="n">
+      <c r="H35" s="4" t="n">
         <v>261</v>
       </c>
-      <c r="H35" s="4" t="n">
+      <c r="I35" s="4" t="n">
         <v>275</v>
       </c>
-      <c r="I35" s="4" t="n">
+      <c r="J35" s="4" t="n">
         <v>15.90816392614563</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="36" spans="1:9">
+    <row customHeight="1" ht="20" r="36" spans="1:10">
       <c r="A36" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C36" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E36" s="4" t="n">
         <v>5638</v>
       </c>
       <c r="F36" s="4" t="n">
-        <v/>
+        <v>0.00285</v>
       </c>
       <c r="G36" s="4" t="n">
         <v/>
@@ -1865,199 +1980,220 @@
       <c r="I36" s="4" t="n">
         <v/>
       </c>
-    </row>
-    <row customHeight="1" ht="20" r="37" spans="1:9">
+      <c r="J36" s="4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="37" spans="1:10">
       <c r="A37" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C37" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E37" s="4" t="n">
         <v>99393</v>
       </c>
       <c r="F37" s="4" t="n">
+        <v>0.03342</v>
+      </c>
+      <c r="G37" s="4" t="n">
         <v>60371011.101</v>
       </c>
-      <c r="G37" s="4" t="n">
+      <c r="H37" s="4" t="n">
         <v>60375712.005002</v>
       </c>
-      <c r="H37" s="4" t="n">
+      <c r="I37" s="4" t="n">
         <v>61110091.003011</v>
       </c>
-      <c r="I37" s="4" t="n">
+      <c r="J37" s="4" t="n">
         <v>200811.6416852575</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="38" spans="1:9">
+    <row customHeight="1" ht="20" r="38" spans="1:10">
       <c r="A38" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C38" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E38" s="4" t="n">
         <v>186</v>
       </c>
       <c r="F38" s="4" t="n">
+        <v>6e-05</v>
+      </c>
+      <c r="G38" s="4" t="n">
         <v>3491</v>
       </c>
-      <c r="G38" s="4" t="n">
+      <c r="H38" s="4" t="n">
         <v>25218</v>
       </c>
-      <c r="H38" s="4" t="n">
+      <c r="I38" s="4" t="n">
         <v>396556</v>
       </c>
-      <c r="I38" s="4" t="n">
+      <c r="J38" s="4" t="n">
         <v>50727.45670965487</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="39" spans="1:9">
+    <row customHeight="1" ht="20" r="39" spans="1:10">
       <c r="A39" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C39" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E39" s="4" t="n">
         <v>3</v>
       </c>
       <c r="F39" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="4" t="n">
         <v>1286</v>
-      </c>
-      <c r="G39" s="4" t="n">
-        <v>3101</v>
       </c>
       <c r="H39" s="4" t="n">
         <v>3101</v>
       </c>
       <c r="I39" s="4" t="n">
+        <v>3101</v>
+      </c>
+      <c r="J39" s="4" t="n">
         <v>788.0710075633194</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="40" spans="1:9">
+    <row customHeight="1" ht="20" r="40" spans="1:10">
       <c r="A40" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C40" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E40" s="4" t="n">
         <v>528</v>
       </c>
       <c r="F40" s="4" t="n">
+        <v>0.00046</v>
+      </c>
+      <c r="G40" s="4" t="n">
         <v>6952</v>
       </c>
-      <c r="G40" s="4" t="n">
+      <c r="H40" s="4" t="n">
         <v>118920</v>
       </c>
-      <c r="H40" s="4" t="n">
+      <c r="I40" s="4" t="n">
         <v>764167</v>
       </c>
-      <c r="I40" s="4" t="n">
+      <c r="J40" s="4" t="n">
         <v>165713.1826663762</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="41" spans="1:9">
+    <row customHeight="1" ht="20" r="41" spans="1:10">
       <c r="A41" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C41" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E41" s="4" t="n">
         <v>405</v>
       </c>
       <c r="F41" s="4" t="n">
+        <v>0.00014</v>
+      </c>
+      <c r="G41" s="4" t="n">
         <v>95982</v>
       </c>
-      <c r="G41" s="4" t="n">
+      <c r="H41" s="4" t="n">
         <v>96377</v>
       </c>
-      <c r="H41" s="4" t="n">
+      <c r="I41" s="4" t="n">
         <v>399675</v>
       </c>
-      <c r="I41" s="4" t="n">
+      <c r="J41" s="4" t="n">
         <v>3673.17441941854</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="42" spans="1:9">
+    <row customHeight="1" ht="20" r="42" spans="1:10">
       <c r="A42" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C42" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E42" s="4" t="n">
         <v>36</v>
       </c>
       <c r="F42" s="4" t="n">
-        <v>0</v>
+        <v>1e-05</v>
       </c>
       <c r="G42" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H42" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" s="4" t="n">
         <v>96</v>
       </c>
-      <c r="I42" s="4" t="n">
+      <c r="J42" s="4" t="n">
         <v>2.840402329033715</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="43" spans="1:9">
+    <row customHeight="1" ht="20" r="43" spans="1:10">
       <c r="A43" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C43" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="E43" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F43" s="4" t="n">
-        <v>7</v>
+        <v>0.00062</v>
       </c>
       <c r="G43" s="4" t="n">
         <v>7</v>
@@ -2066,230 +2202,254 @@
         <v>7</v>
       </c>
       <c r="I43" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="J43" s="4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="44" spans="1:9">
+    <row customHeight="1" ht="20" r="44" spans="1:10">
       <c r="A44" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C44" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="E44" s="4" t="n">
         <v>7</v>
       </c>
       <c r="F44" s="4" t="n">
-        <v>1</v>
+        <v>2e-05</v>
       </c>
       <c r="G44" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H44" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="I44" s="4" t="n">
+      <c r="J44" s="4" t="n">
         <v>0.1177091119644245</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="45" spans="1:9">
+    <row customHeight="1" ht="20" r="45" spans="1:10">
       <c r="A45" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C45" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E45" s="4" t="n">
         <v>5</v>
       </c>
       <c r="F45" s="4" t="n">
+        <v>0.00074</v>
+      </c>
+      <c r="G45" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="G45" s="4" t="n">
+      <c r="H45" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="H45" s="4" t="n">
+      <c r="I45" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="I45" s="4" t="n">
+      <c r="J45" s="4" t="n">
         <v>0.3840218134879771</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="46" spans="1:9">
+    <row customHeight="1" ht="20" r="46" spans="1:10">
       <c r="A46" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C46" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="E46" s="4" t="n">
         <v>146</v>
       </c>
       <c r="F46" s="4" t="n">
-        <v>1</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="G46" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H46" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" s="4" t="n">
         <v>997</v>
       </c>
-      <c r="I46" s="4" t="n">
+      <c r="J46" s="4" t="n">
         <v>2.447895336451035</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="47" spans="1:9">
+    <row customHeight="1" ht="20" r="47" spans="1:10">
       <c r="A47" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C47" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E47" s="4" t="n">
         <v>1636</v>
       </c>
       <c r="F47" s="4" t="n">
+        <v>0.02036</v>
+      </c>
+      <c r="G47" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="G47" s="4" t="n">
+      <c r="H47" s="4" t="n">
         <v>270</v>
       </c>
-      <c r="H47" s="4" t="n">
+      <c r="I47" s="4" t="n">
         <v>7983</v>
       </c>
-      <c r="I47" s="4" t="n">
+      <c r="J47" s="4" t="n">
         <v>233.0848636100392</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="48" spans="1:9">
+    <row customHeight="1" ht="20" r="48" spans="1:10">
       <c r="A48" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C48" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E48" s="4" t="n">
         <v>594</v>
       </c>
       <c r="F48" s="4" t="n">
+        <v>0.2244</v>
+      </c>
+      <c r="G48" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="G48" s="4" t="n">
+      <c r="H48" s="4" t="n">
         <v>168</v>
       </c>
-      <c r="H48" s="4" t="n">
+      <c r="I48" s="4" t="n">
         <v>6141</v>
       </c>
-      <c r="I48" s="4" t="n">
+      <c r="J48" s="4" t="n">
         <v>369.6616614365719</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="49" spans="1:9">
+    <row customHeight="1" ht="20" r="49" spans="1:10">
       <c r="A49" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C49" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E49" s="4" t="n">
         <v>168</v>
       </c>
       <c r="F49" s="4" t="n">
+        <v>6e-05</v>
+      </c>
+      <c r="G49" s="4" t="n">
         <v>1801</v>
       </c>
-      <c r="G49" s="4" t="n">
+      <c r="H49" s="4" t="n">
         <v>1963</v>
       </c>
-      <c r="H49" s="4" t="n">
+      <c r="I49" s="4" t="n">
         <v>2015</v>
       </c>
-      <c r="I49" s="4" t="n">
+      <c r="J49" s="4" t="n">
         <v>23.4413153419186</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="50" spans="1:9">
+    <row customHeight="1" ht="20" r="50" spans="1:10">
       <c r="A50" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C50" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E50" s="4" t="n">
         <v>12</v>
       </c>
       <c r="F50" s="4" t="n">
-        <v>1</v>
+        <v>2e-05</v>
       </c>
       <c r="G50" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H50" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" s="4" t="n">
         <v>41</v>
       </c>
-      <c r="I50" s="4" t="n">
+      <c r="J50" s="4" t="n">
         <v>0.5390753555967679</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="51" spans="1:9">
+    <row customHeight="1" ht="20" r="51" spans="1:10">
       <c r="A51" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C51" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E51" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F51" s="4" t="n">
-        <v/>
+        <v>0.00019</v>
       </c>
       <c r="G51" s="4" t="n">
         <v/>
@@ -2300,170 +2460,188 @@
       <c r="I51" s="4" t="n">
         <v/>
       </c>
-    </row>
-    <row customHeight="1" ht="20" r="52" spans="1:9">
+      <c r="J51" s="4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="52" spans="1:10">
       <c r="A52" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C52" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E52" s="4" t="n">
         <v>426150</v>
       </c>
       <c r="F52" s="4" t="n">
-        <v>1</v>
+        <v>0.14543</v>
       </c>
       <c r="G52" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H52" s="4" t="n">
         <v>122590</v>
       </c>
-      <c r="H52" s="4" t="n">
+      <c r="I52" s="4" t="n">
         <v>251486000</v>
       </c>
-      <c r="I52" s="4" t="n">
+      <c r="J52" s="4" t="n">
         <v>402068.2734081579</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="53" spans="1:9">
+    <row customHeight="1" ht="20" r="53" spans="1:10">
       <c r="A53" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C53" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E53" s="4" t="n">
         <v>638920</v>
       </c>
       <c r="F53" s="4" t="n">
-        <v>1</v>
+        <v>0.21712</v>
       </c>
       <c r="G53" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" s="4" t="n">
         <v>306086</v>
       </c>
-      <c r="H53" s="4" t="n">
+      <c r="I53" s="4" t="n">
         <v>282786000</v>
       </c>
-      <c r="I53" s="4" t="n">
+      <c r="J53" s="4" t="n">
         <v>726346.5283829581</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="54" spans="1:9">
+    <row customHeight="1" ht="20" r="54" spans="1:10">
       <c r="A54" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C54" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E54" s="4" t="n">
         <v>14</v>
       </c>
       <c r="F54" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" s="4" t="n">
         <v>2000</v>
       </c>
-      <c r="G54" s="4" t="n">
+      <c r="H54" s="4" t="n">
         <v>2015</v>
       </c>
-      <c r="H54" s="4" t="n">
+      <c r="I54" s="4" t="n">
         <v>2016</v>
       </c>
-      <c r="I54" s="4" t="n">
+      <c r="J54" s="4" t="n">
         <v>0.03683160478489733</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="55" spans="1:9">
+    <row customHeight="1" ht="20" r="55" spans="1:10">
       <c r="A55" s="3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C55" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E55" s="4" t="n">
         <v>531408</v>
       </c>
       <c r="F55" s="4" t="n">
-        <v>1</v>
+        <v>0.18215</v>
       </c>
       <c r="G55" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H55" s="4" t="n">
         <v>167042</v>
       </c>
-      <c r="H55" s="4" t="n">
+      <c r="I55" s="4" t="n">
         <v>90246219</v>
       </c>
-      <c r="I55" s="4" t="n">
+      <c r="J55" s="4" t="n">
         <v>445013.0933512068</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="56" spans="1:9">
+    <row customHeight="1" ht="20" r="56" spans="1:10">
       <c r="A56" s="3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C56" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E56" s="4" t="n">
         <v>1045757</v>
       </c>
       <c r="F56" s="4" t="n">
+        <v>0.35402</v>
+      </c>
+      <c r="G56" s="4" t="n">
         <v>1.34</v>
       </c>
-      <c r="G56" s="4" t="n">
+      <c r="H56" s="4" t="n">
         <v>3991.78</v>
       </c>
-      <c r="H56" s="4" t="n">
+      <c r="I56" s="4" t="n">
         <v>3458861.12</v>
       </c>
-      <c r="I56" s="4" t="n">
+      <c r="J56" s="4" t="n">
         <v>9183.10557362546</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="57" spans="1:9">
+    <row customHeight="1" ht="20" r="57" spans="1:10">
       <c r="A57" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C57" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E57" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F57" s="4" t="n">
-        <v/>
+        <v>2e-05</v>
       </c>
       <c r="G57" s="4" t="n">
         <v/>
@@ -2474,62 +2652,71 @@
       <c r="I57" s="4" t="n">
         <v/>
       </c>
-    </row>
-    <row customHeight="1" ht="20" r="58" spans="1:9">
+      <c r="J57" s="4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="58" spans="1:10">
       <c r="A58" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C58" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E58" s="4" t="n">
         <v>32</v>
       </c>
       <c r="F58" s="4" t="n">
+        <v>0.00057</v>
+      </c>
+      <c r="G58" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="G58" s="4" t="n">
+      <c r="H58" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="H58" s="4" t="n">
+      <c r="I58" s="4" t="n">
         <v>99</v>
       </c>
-      <c r="I58" s="4" t="n">
+      <c r="J58" s="4" t="n">
         <v>2.580982867075986</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="59" spans="1:9">
+    <row customHeight="1" ht="20" r="59" spans="1:10">
       <c r="A59" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C59" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E59" s="4" t="n">
         <v>96771</v>
       </c>
       <c r="F59" s="4" t="n">
+        <v>0.03325</v>
+      </c>
+      <c r="G59" s="4" t="n">
         <v>-1</v>
       </c>
-      <c r="G59" s="4" t="n">
+      <c r="H59" s="4" t="n">
         <v>60375715022011</v>
       </c>
-      <c r="H59" s="4" t="n">
+      <c r="I59" s="4" t="n">
         <v>483030105084015</v>
       </c>
-      <c r="I59" s="4" t="n">
+      <c r="J59" s="4" t="n">
         <v>324903398913.8006</v>
       </c>
     </row>
